--- a/COMP0173_Temp_Data/rubias_manual.xlsx
+++ b/COMP0173_Temp_Data/rubias_manual.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinlobachevskii/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E3816F-1D81-5742-8065-184C21111BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7467259B-756D-FD44-BCAF-31CC279CC417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1089</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1088</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1088">
   <si>
     <t>text</t>
   </si>
@@ -3122,9 +3122,6 @@
   </si>
   <si>
     <t>в коридорах школы девушкам нельзя обниматься, мало ли подумают, что они лесбиянки</t>
-  </si>
-  <si>
-    <t>лесбиянки не могут иметь нормальные отношения</t>
   </si>
   <si>
     <t>она перестанет быть лесбиянкой когда встретит нормального парня</t>
@@ -3654,10 +3651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C1089"/>
+  <dimension ref="A1:C1088"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="A1068" sqref="A1068"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3680,7 +3677,7 @@
     </row>
     <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3735,7 +3732,7 @@
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3757,7 +3754,7 @@
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -3768,7 +3765,7 @@
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -3801,7 +3798,7 @@
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -3812,7 +3809,7 @@
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -3867,7 +3864,7 @@
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -4065,7 +4062,7 @@
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -4120,7 +4117,7 @@
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
@@ -4274,7 +4271,7 @@
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
@@ -4637,7 +4634,7 @@
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -4659,7 +4656,7 @@
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -4703,7 +4700,7 @@
     </row>
     <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
@@ -4780,7 +4777,7 @@
     </row>
     <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -4846,7 +4843,7 @@
     </row>
     <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -4868,7 +4865,7 @@
     </row>
     <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -4890,7 +4887,7 @@
     </row>
     <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -4901,7 +4898,7 @@
     </row>
     <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -5042,7 +5039,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>623</v>
       </c>
@@ -5088,7 +5085,7 @@
     </row>
     <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -5352,7 +5349,7 @@
     </row>
     <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
@@ -5517,7 +5514,7 @@
     </row>
     <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B169" t="s">
         <v>4</v>
@@ -6254,7 +6251,7 @@
     </row>
     <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
@@ -6296,7 +6293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>721</v>
       </c>
@@ -6307,9 +6304,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
@@ -6329,7 +6326,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1023</v>
       </c>
@@ -6340,7 +6337,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1031</v>
       </c>
@@ -6351,7 +6348,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1024</v>
       </c>
@@ -6373,7 +6370,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>609</v>
       </c>
@@ -6406,7 +6403,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>576</v>
       </c>
@@ -6417,7 +6414,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1030</v>
       </c>
@@ -6428,7 +6425,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>709</v>
       </c>
@@ -6439,7 +6436,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>568</v>
       </c>
@@ -6549,7 +6546,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1025</v>
       </c>
@@ -6813,7 +6810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>716</v>
       </c>
@@ -7640,7 +7637,7 @@
     </row>
     <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B362" t="s">
         <v>4</v>
@@ -7660,7 +7657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>49</v>
       </c>
@@ -7825,7 +7822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1026</v>
       </c>
@@ -7869,7 +7866,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1021</v>
       </c>
@@ -7893,56 +7890,62 @@
     </row>
     <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1033</v>
+        <v>365</v>
+      </c>
+      <c r="B385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>365</v>
+        <v>1034</v>
       </c>
       <c r="B386" t="s">
         <v>4</v>
       </c>
       <c r="C386" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1035</v>
+        <v>8</v>
       </c>
       <c r="B387" t="s">
         <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>8</v>
+        <v>1022</v>
       </c>
       <c r="B388" t="s">
         <v>4</v>
       </c>
       <c r="C388" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1022</v>
+        <v>903</v>
       </c>
       <c r="B389" t="s">
         <v>4</v>
       </c>
       <c r="C389" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>903</v>
+        <v>380</v>
       </c>
       <c r="B390" t="s">
         <v>4</v>
@@ -7953,7 +7956,7 @@
     </row>
     <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>380</v>
+        <v>9</v>
       </c>
       <c r="B391" t="s">
         <v>4</v>
@@ -7964,7 +7967,7 @@
     </row>
     <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>9</v>
+        <v>383</v>
       </c>
       <c r="B392" t="s">
         <v>4</v>
@@ -7973,31 +7976,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>383</v>
+        <v>682</v>
       </c>
       <c r="B393" t="s">
         <v>4</v>
       </c>
       <c r="C393" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>682</v>
+        <v>379</v>
       </c>
       <c r="B394" t="s">
         <v>4</v>
       </c>
       <c r="C394" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B395" t="s">
         <v>4</v>
@@ -8008,18 +8011,18 @@
     </row>
     <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>378</v>
+        <v>53</v>
       </c>
       <c r="B396" t="s">
         <v>4</v>
       </c>
       <c r="C396" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>53</v>
+        <v>1086</v>
       </c>
       <c r="B397" t="s">
         <v>4</v>
@@ -8028,9 +8031,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1087</v>
+        <v>844</v>
       </c>
       <c r="B398" t="s">
         <v>4</v>
@@ -8041,18 +8044,18 @@
     </row>
     <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>844</v>
+        <v>377</v>
       </c>
       <c r="B399" t="s">
         <v>4</v>
       </c>
       <c r="C399" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B400" t="s">
         <v>4</v>
@@ -8063,7 +8066,7 @@
     </row>
     <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B401" t="s">
         <v>4</v>
@@ -8074,18 +8077,18 @@
     </row>
     <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>375</v>
+        <v>772</v>
       </c>
       <c r="B402" t="s">
         <v>4</v>
       </c>
       <c r="C402" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>772</v>
+        <v>373</v>
       </c>
       <c r="B403" t="s">
         <v>4</v>
@@ -8096,7 +8099,7 @@
     </row>
     <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>373</v>
+        <v>754</v>
       </c>
       <c r="B404" t="s">
         <v>4</v>
@@ -8107,7 +8110,7 @@
     </row>
     <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>754</v>
+        <v>385</v>
       </c>
       <c r="B405" t="s">
         <v>4</v>
@@ -8118,7 +8121,7 @@
     </row>
     <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>385</v>
+        <v>894</v>
       </c>
       <c r="B406" t="s">
         <v>4</v>
@@ -8129,7 +8132,7 @@
     </row>
     <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>894</v>
+        <v>387</v>
       </c>
       <c r="B407" t="s">
         <v>4</v>
@@ -8140,7 +8143,7 @@
     </row>
     <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>387</v>
+        <v>768</v>
       </c>
       <c r="B408" t="s">
         <v>4</v>
@@ -8151,29 +8154,29 @@
     </row>
     <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>768</v>
+        <v>371</v>
       </c>
       <c r="B409" t="s">
         <v>4</v>
       </c>
       <c r="C409" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>371</v>
+        <v>769</v>
       </c>
       <c r="B410" t="s">
         <v>4</v>
       </c>
       <c r="C410" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>769</v>
+        <v>388</v>
       </c>
       <c r="B411" t="s">
         <v>4</v>
@@ -8184,7 +8187,7 @@
     </row>
     <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B412" t="s">
         <v>4</v>
@@ -8195,7 +8198,7 @@
     </row>
     <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>389</v>
+        <v>770</v>
       </c>
       <c r="B413" t="s">
         <v>4</v>
@@ -8206,7 +8209,7 @@
     </row>
     <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>770</v>
+        <v>370</v>
       </c>
       <c r="B414" t="s">
         <v>4</v>
@@ -8217,7 +8220,7 @@
     </row>
     <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>370</v>
+        <v>10</v>
       </c>
       <c r="B415" t="s">
         <v>4</v>
@@ -8228,7 +8231,7 @@
     </row>
     <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>10</v>
+        <v>773</v>
       </c>
       <c r="B416" t="s">
         <v>4</v>
@@ -8239,7 +8242,7 @@
     </row>
     <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B417" t="s">
         <v>4</v>
@@ -8250,7 +8253,7 @@
     </row>
     <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>774</v>
+        <v>391</v>
       </c>
       <c r="B418" t="s">
         <v>4</v>
@@ -8272,7 +8275,7 @@
     </row>
     <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>391</v>
+        <v>775</v>
       </c>
       <c r="B420" t="s">
         <v>4</v>
@@ -8283,7 +8286,7 @@
     </row>
     <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>775</v>
+        <v>390</v>
       </c>
       <c r="B421" t="s">
         <v>4</v>
@@ -8294,7 +8297,7 @@
     </row>
     <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>390</v>
+        <v>776</v>
       </c>
       <c r="B422" t="s">
         <v>4</v>
@@ -8305,7 +8308,7 @@
     </row>
     <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>776</v>
+        <v>735</v>
       </c>
       <c r="B423" t="s">
         <v>4</v>
@@ -8316,7 +8319,7 @@
     </row>
     <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>735</v>
+        <v>392</v>
       </c>
       <c r="B424" t="s">
         <v>4</v>
@@ -8327,7 +8330,7 @@
     </row>
     <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>392</v>
+        <v>777</v>
       </c>
       <c r="B425" t="s">
         <v>4</v>
@@ -8338,7 +8341,7 @@
     </row>
     <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B426" t="s">
         <v>4</v>
@@ -8349,51 +8352,51 @@
     </row>
     <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>778</v>
+        <v>369</v>
       </c>
       <c r="B427" t="s">
         <v>4</v>
       </c>
       <c r="C427" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>369</v>
+        <v>658</v>
       </c>
       <c r="B428" t="s">
         <v>4</v>
       </c>
       <c r="C428" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>658</v>
+        <v>30</v>
       </c>
       <c r="B429" t="s">
         <v>4</v>
       </c>
       <c r="C429" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>30</v>
+        <v>779</v>
       </c>
       <c r="B430" t="s">
         <v>4</v>
       </c>
       <c r="C430" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B431" t="s">
         <v>4</v>
@@ -8404,29 +8407,29 @@
     </row>
     <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>780</v>
+        <v>31</v>
       </c>
       <c r="B432" t="s">
         <v>4</v>
       </c>
       <c r="C432" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>31</v>
+        <v>782</v>
       </c>
       <c r="B433" t="s">
         <v>4</v>
       </c>
       <c r="C433" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B434" t="s">
         <v>4</v>
@@ -8437,40 +8440,40 @@
     </row>
     <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>783</v>
+        <v>17</v>
       </c>
       <c r="B435" t="s">
         <v>4</v>
       </c>
       <c r="C435" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>17</v>
+        <v>366</v>
       </c>
       <c r="B436" t="s">
         <v>4</v>
       </c>
       <c r="C436" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>366</v>
+        <v>786</v>
       </c>
       <c r="B437" t="s">
         <v>4</v>
       </c>
       <c r="C437" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B438" t="s">
         <v>4</v>
@@ -8481,7 +8484,7 @@
     </row>
     <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B439" t="s">
         <v>4</v>
@@ -8492,7 +8495,7 @@
     </row>
     <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B440" t="s">
         <v>4</v>
@@ -8503,29 +8506,29 @@
     </row>
     <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>789</v>
+        <v>541</v>
       </c>
       <c r="B441" t="s">
         <v>4</v>
       </c>
       <c r="C441" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>541</v>
+        <v>364</v>
       </c>
       <c r="B442" t="s">
         <v>4</v>
       </c>
       <c r="C442" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="B443" t="s">
         <v>4</v>
@@ -8536,7 +8539,7 @@
     </row>
     <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="B444" t="s">
         <v>4</v>
@@ -8547,7 +8550,7 @@
     </row>
     <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="B445" t="s">
         <v>4</v>
@@ -8558,7 +8561,7 @@
     </row>
     <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B446" t="s">
         <v>4</v>
@@ -8569,7 +8572,7 @@
     </row>
     <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B447" t="s">
         <v>4</v>
@@ -8580,7 +8583,7 @@
     </row>
     <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="B448" t="s">
         <v>4</v>
@@ -8591,7 +8594,7 @@
     </row>
     <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="B449" t="s">
         <v>4</v>
@@ -8602,7 +8605,7 @@
     </row>
     <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B450" t="s">
         <v>4</v>
@@ -8613,7 +8616,7 @@
     </row>
     <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="B451" t="s">
         <v>4</v>
@@ -8624,7 +8627,7 @@
     </row>
     <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>358</v>
+        <v>763</v>
       </c>
       <c r="B452" t="s">
         <v>4</v>
@@ -8635,7 +8638,7 @@
     </row>
     <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>763</v>
+        <v>403</v>
       </c>
       <c r="B453" t="s">
         <v>4</v>
@@ -8646,7 +8649,7 @@
     </row>
     <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>403</v>
+        <v>741</v>
       </c>
       <c r="B454" t="s">
         <v>4</v>
@@ -8657,7 +8660,7 @@
     </row>
     <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>741</v>
+        <v>357</v>
       </c>
       <c r="B455" t="s">
         <v>4</v>
@@ -8668,7 +8671,7 @@
     </row>
     <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>357</v>
+        <v>887</v>
       </c>
       <c r="B456" t="s">
         <v>4</v>
@@ -8679,7 +8682,7 @@
     </row>
     <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>887</v>
+        <v>356</v>
       </c>
       <c r="B457" t="s">
         <v>4</v>
@@ -8690,7 +8693,7 @@
     </row>
     <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B458" t="s">
         <v>4</v>
@@ -8701,7 +8704,7 @@
     </row>
     <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>353</v>
+        <v>888</v>
       </c>
       <c r="B459" t="s">
         <v>4</v>
@@ -8712,7 +8715,7 @@
     </row>
     <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>888</v>
+        <v>350</v>
       </c>
       <c r="B460" t="s">
         <v>4</v>
@@ -8723,7 +8726,7 @@
     </row>
     <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>350</v>
+        <v>835</v>
       </c>
       <c r="B461" t="s">
         <v>4</v>
@@ -8734,7 +8737,7 @@
     </row>
     <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>835</v>
+        <v>349</v>
       </c>
       <c r="B462" t="s">
         <v>4</v>
@@ -8745,7 +8748,7 @@
     </row>
     <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B463" t="s">
         <v>4</v>
@@ -8756,7 +8759,7 @@
     </row>
     <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>348</v>
+        <v>758</v>
       </c>
       <c r="B464" t="s">
         <v>4</v>
@@ -8767,7 +8770,7 @@
     </row>
     <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>758</v>
+        <v>838</v>
       </c>
       <c r="B465" t="s">
         <v>4</v>
@@ -8778,7 +8781,7 @@
     </row>
     <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>838</v>
+        <v>889</v>
       </c>
       <c r="B466" t="s">
         <v>4</v>
@@ -8789,7 +8792,7 @@
     </row>
     <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>889</v>
+        <v>347</v>
       </c>
       <c r="B467" t="s">
         <v>4</v>
@@ -8800,7 +8803,7 @@
     </row>
     <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>347</v>
+        <v>839</v>
       </c>
       <c r="B468" t="s">
         <v>4</v>
@@ -8811,7 +8814,7 @@
     </row>
     <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B469" t="s">
         <v>4</v>
@@ -8822,7 +8825,7 @@
     </row>
     <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B470" t="s">
         <v>4</v>
@@ -8833,7 +8836,7 @@
     </row>
     <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B471" t="s">
         <v>4</v>
@@ -8844,7 +8847,7 @@
     </row>
     <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>842</v>
+        <v>890</v>
       </c>
       <c r="B472" t="s">
         <v>4</v>
@@ -8855,7 +8858,7 @@
     </row>
     <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B473" t="s">
         <v>4</v>
@@ -8866,7 +8869,7 @@
     </row>
     <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B474" t="s">
         <v>4</v>
@@ -8877,7 +8880,7 @@
     </row>
     <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B475" t="s">
         <v>4</v>
@@ -8888,7 +8891,7 @@
     </row>
     <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B476" t="s">
         <v>4</v>
@@ -8899,7 +8902,7 @@
     </row>
     <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>895</v>
+        <v>843</v>
       </c>
       <c r="B477" t="s">
         <v>4</v>
@@ -8908,31 +8911,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>843</v>
+        <v>1027</v>
       </c>
       <c r="B478" t="s">
         <v>4</v>
       </c>
       <c r="C478" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>1027</v>
+        <v>900</v>
       </c>
       <c r="B479" t="s">
         <v>4</v>
       </c>
       <c r="C479" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B480" t="s">
         <v>4</v>
@@ -8943,7 +8946,7 @@
     </row>
     <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>899</v>
+        <v>346</v>
       </c>
       <c r="B481" t="s">
         <v>4</v>
@@ -8952,9 +8955,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>346</v>
+        <v>896</v>
       </c>
       <c r="B482" t="s">
         <v>4</v>
@@ -8965,7 +8968,7 @@
     </row>
     <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B483" t="s">
         <v>4</v>
@@ -8976,7 +8979,7 @@
     </row>
     <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>897</v>
+        <v>846</v>
       </c>
       <c r="B484" t="s">
         <v>4</v>
@@ -8987,7 +8990,7 @@
     </row>
     <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>846</v>
+        <v>345</v>
       </c>
       <c r="B485" t="s">
         <v>4</v>
@@ -8998,7 +9001,7 @@
     </row>
     <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B486" t="s">
         <v>4</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>343</v>
+        <v>847</v>
       </c>
       <c r="B487" t="s">
         <v>4</v>
@@ -9020,7 +9023,7 @@
     </row>
     <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>847</v>
+        <v>902</v>
       </c>
       <c r="B488" t="s">
         <v>4</v>
@@ -9029,31 +9032,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>902</v>
+        <v>1028</v>
       </c>
       <c r="B489" t="s">
         <v>4</v>
       </c>
       <c r="C489" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1028</v>
+        <v>848</v>
       </c>
       <c r="B490" t="s">
         <v>4</v>
       </c>
       <c r="C490" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>848</v>
+        <v>339</v>
       </c>
       <c r="B491" t="s">
         <v>4</v>
@@ -9064,7 +9067,7 @@
     </row>
     <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>339</v>
+        <v>849</v>
       </c>
       <c r="B492" t="s">
         <v>4</v>
@@ -9075,7 +9078,7 @@
     </row>
     <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B493" t="s">
         <v>4</v>
@@ -9086,7 +9089,7 @@
     </row>
     <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>850</v>
+        <v>901</v>
       </c>
       <c r="B494" t="s">
         <v>4</v>
@@ -9097,7 +9100,7 @@
     </row>
     <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>901</v>
+        <v>851</v>
       </c>
       <c r="B495" t="s">
         <v>4</v>
@@ -9106,31 +9109,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>851</v>
+        <v>583</v>
       </c>
       <c r="B496" t="s">
         <v>4</v>
       </c>
       <c r="C496" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>583</v>
+        <v>757</v>
       </c>
       <c r="B497" t="s">
         <v>4</v>
       </c>
       <c r="C497" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="B498" t="s">
         <v>4</v>
@@ -9141,7 +9144,7 @@
     </row>
     <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B499" t="s">
         <v>4</v>
@@ -9152,7 +9155,7 @@
     </row>
     <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
       <c r="B500" t="s">
         <v>4</v>
@@ -9163,7 +9166,7 @@
     </row>
     <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>883</v>
+        <v>904</v>
       </c>
       <c r="B501" t="s">
         <v>4</v>
@@ -9174,7 +9177,7 @@
     </row>
     <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B502" t="s">
         <v>4</v>
@@ -9185,7 +9188,7 @@
     </row>
     <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B503" t="s">
         <v>4</v>
@@ -9196,7 +9199,7 @@
     </row>
     <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B504" t="s">
         <v>4</v>
@@ -9207,7 +9210,7 @@
     </row>
     <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>907</v>
+        <v>856</v>
       </c>
       <c r="B505" t="s">
         <v>4</v>
@@ -9218,7 +9221,7 @@
     </row>
     <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B506" t="s">
         <v>4</v>
@@ -9229,7 +9232,7 @@
     </row>
     <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B507" t="s">
         <v>4</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>858</v>
+        <v>983</v>
       </c>
       <c r="B508" t="s">
         <v>4</v>
@@ -9251,7 +9254,7 @@
     </row>
     <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="B509" t="s">
         <v>4</v>
@@ -9262,7 +9265,7 @@
     </row>
     <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B510" t="s">
         <v>4</v>
@@ -9273,7 +9276,7 @@
     </row>
     <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>975</v>
+        <v>859</v>
       </c>
       <c r="B511" t="s">
         <v>4</v>
@@ -9284,7 +9287,7 @@
     </row>
     <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B512" t="s">
         <v>4</v>
@@ -9295,7 +9298,7 @@
     </row>
     <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>860</v>
+        <v>908</v>
       </c>
       <c r="B513" t="s">
         <v>4</v>
@@ -9306,7 +9309,7 @@
     </row>
     <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>908</v>
+        <v>974</v>
       </c>
       <c r="B514" t="s">
         <v>4</v>
@@ -9317,7 +9320,7 @@
     </row>
     <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>974</v>
+        <v>862</v>
       </c>
       <c r="B515" t="s">
         <v>4</v>
@@ -9328,7 +9331,7 @@
     </row>
     <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>862</v>
+        <v>968</v>
       </c>
       <c r="B516" t="s">
         <v>4</v>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>968</v>
+        <v>863</v>
       </c>
       <c r="B517" t="s">
         <v>4</v>
@@ -9350,7 +9353,7 @@
     </row>
     <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B518" t="s">
         <v>4</v>
@@ -9361,7 +9364,7 @@
     </row>
     <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>864</v>
+        <v>965</v>
       </c>
       <c r="B519" t="s">
         <v>4</v>
@@ -9372,95 +9375,95 @@
     </row>
     <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>965</v>
+        <v>47</v>
       </c>
       <c r="B520" t="s">
         <v>4</v>
       </c>
       <c r="C520" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>47</v>
+        <v>407</v>
       </c>
       <c r="B521" t="s">
         <v>4</v>
       </c>
       <c r="C521" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>407</v>
+        <v>963</v>
       </c>
       <c r="B522" t="s">
         <v>4</v>
       </c>
       <c r="C522" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>963</v>
+        <v>34</v>
       </c>
       <c r="B523" t="s">
         <v>4</v>
       </c>
       <c r="C523" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>34</v>
+        <v>1055</v>
       </c>
       <c r="B524" t="s">
         <v>4</v>
       </c>
       <c r="C524" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1056</v>
+        <v>405</v>
       </c>
       <c r="B525" t="s">
         <v>4</v>
       </c>
       <c r="C525" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>405</v>
+        <v>1084</v>
       </c>
       <c r="B526" t="s">
         <v>4</v>
       </c>
       <c r="C526" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>1085</v>
+        <v>1017</v>
       </c>
       <c r="B527" t="s">
         <v>4</v>
       </c>
       <c r="C527" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B528" t="s">
         <v>4</v>
@@ -9471,18 +9474,18 @@
     </row>
     <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>1018</v>
+        <v>732</v>
       </c>
       <c r="B529" t="s">
         <v>4</v>
       </c>
       <c r="C529" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>732</v>
+        <v>962</v>
       </c>
       <c r="B530" t="s">
         <v>4</v>
@@ -9493,18 +9496,18 @@
     </row>
     <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>962</v>
+        <v>1006</v>
       </c>
       <c r="B531" t="s">
         <v>4</v>
       </c>
       <c r="C531" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B532" t="s">
         <v>4</v>
@@ -9515,29 +9518,29 @@
     </row>
     <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>1007</v>
+        <v>570</v>
       </c>
       <c r="B533" t="s">
         <v>4</v>
       </c>
       <c r="C533" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>570</v>
+        <v>957</v>
       </c>
       <c r="B534" t="s">
         <v>4</v>
       </c>
       <c r="C534" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>957</v>
+        <v>882</v>
       </c>
       <c r="B535" t="s">
         <v>4</v>
@@ -9548,7 +9551,7 @@
     </row>
     <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>882</v>
+        <v>362</v>
       </c>
       <c r="B536" t="s">
         <v>4</v>
@@ -9559,29 +9562,29 @@
     </row>
     <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>362</v>
+        <v>1043</v>
       </c>
       <c r="B537" t="s">
         <v>4</v>
       </c>
       <c r="C537" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>1044</v>
+        <v>955</v>
       </c>
       <c r="B538" t="s">
         <v>4</v>
       </c>
       <c r="C538" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B539" t="s">
         <v>4</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="B540" t="s">
         <v>4</v>
@@ -9601,31 +9604,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>973</v>
+        <v>647</v>
       </c>
       <c r="B541" t="s">
         <v>4</v>
       </c>
       <c r="C541" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>647</v>
+        <v>953</v>
       </c>
       <c r="B542" t="s">
         <v>4</v>
       </c>
       <c r="C542" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B543" t="s">
         <v>4</v>
@@ -9634,9 +9637,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B544" t="s">
         <v>4</v>
@@ -9647,51 +9650,51 @@
     </row>
     <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>951</v>
+        <v>642</v>
       </c>
       <c r="B545" t="s">
         <v>4</v>
       </c>
       <c r="C545" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="546" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>642</v>
+        <v>966</v>
       </c>
       <c r="B546" t="s">
         <v>4</v>
       </c>
       <c r="C546" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>966</v>
+        <v>662</v>
       </c>
       <c r="B547" t="s">
         <v>4</v>
       </c>
       <c r="C547" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>662</v>
+        <v>949</v>
       </c>
       <c r="B548" t="s">
         <v>4</v>
       </c>
       <c r="C548" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>949</v>
+        <v>880</v>
       </c>
       <c r="B549" t="s">
         <v>4</v>
@@ -9702,7 +9705,7 @@
     </row>
     <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>880</v>
+        <v>813</v>
       </c>
       <c r="B550" t="s">
         <v>4</v>
@@ -9713,7 +9716,7 @@
     </row>
     <row r="551" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>813</v>
+        <v>334</v>
       </c>
       <c r="B551" t="s">
         <v>4</v>
@@ -9724,7 +9727,7 @@
     </row>
     <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>334</v>
+        <v>811</v>
       </c>
       <c r="B552" t="s">
         <v>4</v>
@@ -9735,7 +9738,7 @@
     </row>
     <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>811</v>
+        <v>332</v>
       </c>
       <c r="B553" t="s">
         <v>4</v>
@@ -9746,7 +9749,7 @@
     </row>
     <row r="554" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>332</v>
+        <v>946</v>
       </c>
       <c r="B554" t="s">
         <v>4</v>
@@ -9757,7 +9760,7 @@
     </row>
     <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>946</v>
+        <v>809</v>
       </c>
       <c r="B555" t="s">
         <v>4</v>
@@ -9768,18 +9771,18 @@
     </row>
     <row r="556" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>809</v>
+        <v>401</v>
       </c>
       <c r="B556" t="s">
         <v>4</v>
       </c>
       <c r="C556" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="557" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B557" t="s">
         <v>4</v>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="558" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>400</v>
+        <v>1056</v>
       </c>
       <c r="B558" t="s">
         <v>4</v>
@@ -9801,18 +9804,18 @@
     </row>
     <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>1057</v>
+        <v>910</v>
       </c>
       <c r="B559" t="s">
         <v>4</v>
       </c>
       <c r="C559" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>910</v>
+        <v>866</v>
       </c>
       <c r="B560" t="s">
         <v>4</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B561" t="s">
         <v>4</v>
@@ -9834,7 +9837,7 @@
     </row>
     <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>867</v>
+        <v>944</v>
       </c>
       <c r="B562" t="s">
         <v>4</v>
@@ -9845,7 +9848,7 @@
     </row>
     <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>944</v>
+        <v>911</v>
       </c>
       <c r="B563" t="s">
         <v>4</v>
@@ -9856,7 +9859,7 @@
     </row>
     <row r="564" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>911</v>
+        <v>330</v>
       </c>
       <c r="B564" t="s">
         <v>4</v>
@@ -9867,7 +9870,7 @@
     </row>
     <row r="565" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B565" t="s">
         <v>4</v>
@@ -9878,7 +9881,7 @@
     </row>
     <row r="566" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>331</v>
+        <v>943</v>
       </c>
       <c r="B566" t="s">
         <v>4</v>
@@ -9889,7 +9892,7 @@
     </row>
     <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>943</v>
+        <v>915</v>
       </c>
       <c r="B567" t="s">
         <v>4</v>
@@ -9900,7 +9903,7 @@
     </row>
     <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>915</v>
+        <v>869</v>
       </c>
       <c r="B568" t="s">
         <v>4</v>
@@ -9911,7 +9914,7 @@
     </row>
     <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>869</v>
+        <v>329</v>
       </c>
       <c r="B569" t="s">
         <v>4</v>
@@ -9922,7 +9925,7 @@
     </row>
     <row r="570" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="B570" t="s">
         <v>4</v>
@@ -9931,9 +9934,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>945</v>
+        <v>871</v>
       </c>
       <c r="B571" t="s">
         <v>4</v>
@@ -9944,7 +9947,7 @@
     </row>
     <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>871</v>
+        <v>916</v>
       </c>
       <c r="B572" t="s">
         <v>4</v>
@@ -9955,7 +9958,7 @@
     </row>
     <row r="573" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>916</v>
+        <v>872</v>
       </c>
       <c r="B573" t="s">
         <v>4</v>
@@ -9966,7 +9969,7 @@
     </row>
     <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>872</v>
+        <v>917</v>
       </c>
       <c r="B574" t="s">
         <v>4</v>
@@ -9977,7 +9980,7 @@
     </row>
     <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B575" t="s">
         <v>4</v>
@@ -9988,7 +9991,7 @@
     </row>
     <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="B576" t="s">
         <v>4</v>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="B577" t="s">
         <v>4</v>
@@ -10010,7 +10013,7 @@
     </row>
     <row r="578" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>920</v>
+        <v>873</v>
       </c>
       <c r="B578" t="s">
         <v>4</v>
@@ -10021,7 +10024,7 @@
     </row>
     <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B579" t="s">
         <v>4</v>
@@ -10032,7 +10035,7 @@
     </row>
     <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>874</v>
+        <v>940</v>
       </c>
       <c r="B580" t="s">
         <v>4</v>
@@ -10043,7 +10046,7 @@
     </row>
     <row r="581" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B581" t="s">
         <v>4</v>
@@ -10054,7 +10057,7 @@
     </row>
     <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B582" t="s">
         <v>4</v>
@@ -10065,7 +10068,7 @@
     </row>
     <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="B583" t="s">
         <v>4</v>
@@ -10076,7 +10079,7 @@
     </row>
     <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B584" t="s">
         <v>4</v>
@@ -10087,7 +10090,7 @@
     </row>
     <row r="585" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B585" t="s">
         <v>4</v>
@@ -10098,7 +10101,7 @@
     </row>
     <row r="586" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B586" t="s">
         <v>4</v>
@@ -10109,7 +10112,7 @@
     </row>
     <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>927</v>
+        <v>875</v>
       </c>
       <c r="B587" t="s">
         <v>4</v>
@@ -10120,7 +10123,7 @@
     </row>
     <row r="588" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>875</v>
+        <v>928</v>
       </c>
       <c r="B588" t="s">
         <v>4</v>
@@ -10131,7 +10134,7 @@
     </row>
     <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B589" t="s">
         <v>4</v>
@@ -10140,9 +10143,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B590" t="s">
         <v>4</v>
@@ -10153,7 +10156,7 @@
     </row>
     <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B591" t="s">
         <v>4</v>
@@ -10164,7 +10167,7 @@
     </row>
     <row r="592" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B592" t="s">
         <v>4</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="593" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B593" t="s">
         <v>4</v>
@@ -10186,7 +10189,7 @@
     </row>
     <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>933</v>
+        <v>802</v>
       </c>
       <c r="B594" t="s">
         <v>4</v>
@@ -10197,40 +10200,40 @@
     </row>
     <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>802</v>
+        <v>1057</v>
       </c>
       <c r="B595" t="s">
         <v>4</v>
       </c>
       <c r="C595" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="596" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1058</v>
+        <v>33</v>
       </c>
       <c r="B596" t="s">
         <v>4</v>
       </c>
       <c r="C596" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>33</v>
+        <v>935</v>
       </c>
       <c r="B597" t="s">
         <v>4</v>
       </c>
       <c r="C597" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="598" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B598" t="s">
         <v>4</v>
@@ -10241,7 +10244,7 @@
     </row>
     <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B599" t="s">
         <v>4</v>
@@ -10252,7 +10255,7 @@
     </row>
     <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B600" t="s">
         <v>4</v>
@@ -10263,7 +10266,7 @@
     </row>
     <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="B601" t="s">
         <v>4</v>
@@ -10274,7 +10277,7 @@
     </row>
     <row r="602" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B602" t="s">
         <v>4</v>
@@ -10285,7 +10288,7 @@
     </row>
     <row r="603" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B603" t="s">
         <v>4</v>
@@ -10296,7 +10299,7 @@
     </row>
     <row r="604" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B604" t="s">
         <v>4</v>
@@ -10307,7 +10310,7 @@
     </row>
     <row r="605" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="B605" t="s">
         <v>4</v>
@@ -10318,7 +10321,7 @@
     </row>
     <row r="606" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>942</v>
+        <v>797</v>
       </c>
       <c r="B606" t="s">
         <v>4</v>
@@ -10329,7 +10332,7 @@
     </row>
     <row r="607" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>797</v>
+        <v>914</v>
       </c>
       <c r="B607" t="s">
         <v>4</v>
@@ -10340,7 +10343,7 @@
     </row>
     <row r="608" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B608" t="s">
         <v>4</v>
@@ -10351,7 +10354,7 @@
     </row>
     <row r="609" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B609" t="s">
         <v>4</v>
@@ -10362,7 +10365,7 @@
     </row>
     <row r="610" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>912</v>
+        <v>795</v>
       </c>
       <c r="B610" t="s">
         <v>4</v>
@@ -10373,7 +10376,7 @@
     </row>
     <row r="611" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>795</v>
+        <v>328</v>
       </c>
       <c r="B611" t="s">
         <v>4</v>
@@ -10384,40 +10387,40 @@
     </row>
     <row r="612" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>328</v>
+        <v>761</v>
       </c>
       <c r="B612" t="s">
         <v>4</v>
       </c>
       <c r="C612" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="613" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>761</v>
+        <v>865</v>
       </c>
       <c r="B613" t="s">
         <v>4</v>
       </c>
       <c r="C613" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="614" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>865</v>
+        <v>611</v>
       </c>
       <c r="B614" t="s">
         <v>4</v>
       </c>
       <c r="C614" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="615" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>611</v>
+        <v>32</v>
       </c>
       <c r="B615" t="s">
         <v>4</v>
@@ -10428,18 +10431,18 @@
     </row>
     <row r="616" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="B616" t="s">
         <v>4</v>
       </c>
       <c r="C616" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="617" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B617" t="s">
         <v>4</v>
@@ -10450,18 +10453,18 @@
     </row>
     <row r="618" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B618" t="s">
         <v>4</v>
       </c>
       <c r="C618" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="619" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>323</v>
+        <v>1058</v>
       </c>
       <c r="B619" t="s">
         <v>4</v>
@@ -10472,7 +10475,7 @@
     </row>
     <row r="620" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1059</v>
+        <v>828</v>
       </c>
       <c r="B620" t="s">
         <v>4</v>
@@ -10483,73 +10486,73 @@
     </row>
     <row r="621" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>828</v>
+        <v>1019</v>
       </c>
       <c r="B621" t="s">
         <v>4</v>
       </c>
       <c r="C621" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="622" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1019</v>
+        <v>320</v>
       </c>
       <c r="B622" t="s">
         <v>4</v>
       </c>
       <c r="C622" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="623" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>320</v>
+        <v>1029</v>
       </c>
       <c r="B623" t="s">
         <v>4</v>
       </c>
       <c r="C623" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="624" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1029</v>
+        <v>319</v>
       </c>
       <c r="B624" t="s">
         <v>4</v>
       </c>
       <c r="C624" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="625" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>319</v>
+        <v>997</v>
       </c>
       <c r="B625" t="s">
         <v>4</v>
       </c>
       <c r="C625" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="626" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>997</v>
+        <v>317</v>
       </c>
       <c r="B626" t="s">
         <v>4</v>
       </c>
       <c r="C626" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="627" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B627" t="s">
         <v>4</v>
@@ -10560,7 +10563,7 @@
     </row>
     <row r="628" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B628" t="s">
         <v>4</v>
@@ -10571,7 +10574,7 @@
     </row>
     <row r="629" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>315</v>
+        <v>496</v>
       </c>
       <c r="B629" t="s">
         <v>4</v>
@@ -10582,29 +10585,29 @@
     </row>
     <row r="630" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>496</v>
+        <v>18</v>
       </c>
       <c r="B630" t="s">
         <v>4</v>
       </c>
       <c r="C630" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="631" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="B631" t="s">
         <v>4</v>
       </c>
       <c r="C631" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="632" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="B632" t="s">
         <v>4</v>
@@ -10615,7 +10618,7 @@
     </row>
     <row r="633" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B633" t="s">
         <v>4</v>
@@ -10626,73 +10629,73 @@
     </row>
     <row r="634" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>313</v>
+        <v>1081</v>
       </c>
       <c r="B634" t="s">
         <v>4</v>
       </c>
       <c r="C634" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="635" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>1082</v>
+        <v>1059</v>
       </c>
       <c r="B635" t="s">
         <v>4</v>
       </c>
       <c r="C635" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="636" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>1060</v>
+        <v>571</v>
       </c>
       <c r="B636" t="s">
         <v>4</v>
       </c>
       <c r="C636" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="637" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>571</v>
+        <v>372</v>
       </c>
       <c r="B637" t="s">
         <v>4</v>
       </c>
       <c r="C637" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="638" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>372</v>
+        <v>540</v>
       </c>
       <c r="B638" t="s">
         <v>4</v>
       </c>
       <c r="C638" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="639" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>540</v>
+        <v>308</v>
       </c>
       <c r="B639" t="s">
         <v>4</v>
       </c>
       <c r="C639" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="640" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>308</v>
+        <v>495</v>
       </c>
       <c r="B640" t="s">
         <v>4</v>
@@ -10703,7 +10706,7 @@
     </row>
     <row r="641" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>495</v>
+        <v>368</v>
       </c>
       <c r="B641" t="s">
         <v>4</v>
@@ -10714,7 +10717,7 @@
     </row>
     <row r="642" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="B642" t="s">
         <v>4</v>
@@ -10725,73 +10728,73 @@
     </row>
     <row r="643" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="B643" t="s">
         <v>4</v>
       </c>
       <c r="C643" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="644" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="B644" t="s">
         <v>4</v>
       </c>
       <c r="C644" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="645" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>303</v>
+        <v>752</v>
       </c>
       <c r="B645" t="s">
         <v>4</v>
       </c>
       <c r="C645" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="646" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>752</v>
+        <v>514</v>
       </c>
       <c r="B646" t="s">
         <v>4</v>
       </c>
       <c r="C646" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="647" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>514</v>
+        <v>311</v>
       </c>
       <c r="B647" t="s">
         <v>4</v>
       </c>
       <c r="C647" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="648" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>311</v>
+        <v>995</v>
       </c>
       <c r="B648" t="s">
         <v>4</v>
       </c>
       <c r="C648" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="649" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>995</v>
+        <v>511</v>
       </c>
       <c r="B649" t="s">
         <v>4</v>
@@ -10802,7 +10805,7 @@
     </row>
     <row r="650" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>511</v>
+        <v>608</v>
       </c>
       <c r="B650" t="s">
         <v>4</v>
@@ -10813,18 +10816,18 @@
     </row>
     <row r="651" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>608</v>
+        <v>750</v>
       </c>
       <c r="B651" t="s">
         <v>4</v>
       </c>
       <c r="C651" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="652" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>750</v>
+        <v>947</v>
       </c>
       <c r="B652" t="s">
         <v>4</v>
@@ -10833,9 +10836,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B653" t="s">
         <v>4</v>
@@ -10846,51 +10849,51 @@
     </row>
     <row r="654" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>948</v>
+        <v>992</v>
       </c>
       <c r="B654" t="s">
         <v>4</v>
       </c>
       <c r="C654" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="655" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>992</v>
+        <v>879</v>
       </c>
       <c r="B655" t="s">
         <v>4</v>
       </c>
       <c r="C655" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="656" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>879</v>
+        <v>29</v>
       </c>
       <c r="B656" t="s">
         <v>4</v>
       </c>
       <c r="C656" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="657" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>29</v>
+        <v>881</v>
       </c>
       <c r="B657" t="s">
         <v>4</v>
       </c>
       <c r="C657" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="658" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>881</v>
+        <v>298</v>
       </c>
       <c r="B658" t="s">
         <v>4</v>
@@ -10901,7 +10904,7 @@
     </row>
     <row r="659" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>298</v>
+        <v>950</v>
       </c>
       <c r="B659" t="s">
         <v>4</v>
@@ -10912,7 +10915,7 @@
     </row>
     <row r="660" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>950</v>
+        <v>494</v>
       </c>
       <c r="B660" t="s">
         <v>4</v>
@@ -10923,7 +10926,7 @@
     </row>
     <row r="661" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>494</v>
+        <v>297</v>
       </c>
       <c r="B661" t="s">
         <v>4</v>
@@ -10934,7 +10937,7 @@
     </row>
     <row r="662" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>297</v>
+        <v>51</v>
       </c>
       <c r="B662" t="s">
         <v>4</v>
@@ -10945,7 +10948,7 @@
     </row>
     <row r="663" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="B663" t="s">
         <v>4</v>
@@ -10956,7 +10959,7 @@
     </row>
     <row r="664" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>296</v>
+        <v>878</v>
       </c>
       <c r="B664" t="s">
         <v>4</v>
@@ -10967,7 +10970,7 @@
     </row>
     <row r="665" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B665" t="s">
         <v>4</v>
@@ -10978,7 +10981,7 @@
     </row>
     <row r="666" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>877</v>
+        <v>956</v>
       </c>
       <c r="B666" t="s">
         <v>4</v>
@@ -10987,9 +10990,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>956</v>
+        <v>868</v>
       </c>
       <c r="B667" t="s">
         <v>4</v>
@@ -11000,7 +11003,7 @@
     </row>
     <row r="668" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>868</v>
+        <v>958</v>
       </c>
       <c r="B668" t="s">
         <v>4</v>
@@ -11011,7 +11014,7 @@
     </row>
     <row r="669" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B669" t="s">
         <v>4</v>
@@ -11022,7 +11025,7 @@
     </row>
     <row r="670" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B670" t="s">
         <v>4</v>
@@ -11033,7 +11036,7 @@
     </row>
     <row r="671" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B671" t="s">
         <v>4</v>
@@ -11044,7 +11047,7 @@
     </row>
     <row r="672" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>961</v>
+        <v>295</v>
       </c>
       <c r="B672" t="s">
         <v>4</v>
@@ -11055,62 +11058,62 @@
     </row>
     <row r="673" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B673" t="s">
         <v>4</v>
       </c>
       <c r="C673" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="674" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>293</v>
+        <v>964</v>
       </c>
       <c r="B674" t="s">
         <v>4</v>
       </c>
       <c r="C674" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="675" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>964</v>
+        <v>559</v>
       </c>
       <c r="B675" t="s">
         <v>4</v>
       </c>
       <c r="C675" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>559</v>
+        <v>300</v>
       </c>
       <c r="B676" t="s">
         <v>4</v>
       </c>
       <c r="C676" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="677" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>300</v>
+        <v>967</v>
       </c>
       <c r="B677" t="s">
         <v>4</v>
       </c>
       <c r="C677" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="678" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>967</v>
+        <v>753</v>
       </c>
       <c r="B678" t="s">
         <v>4</v>
@@ -11121,7 +11124,7 @@
     </row>
     <row r="679" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>753</v>
+        <v>969</v>
       </c>
       <c r="B679" t="s">
         <v>4</v>
@@ -11132,29 +11135,29 @@
     </row>
     <row r="680" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>969</v>
+        <v>722</v>
       </c>
       <c r="B680" t="s">
         <v>4</v>
       </c>
       <c r="C680" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="681" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>722</v>
+        <v>322</v>
       </c>
       <c r="B681" t="s">
         <v>4</v>
       </c>
       <c r="C681" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="682" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>322</v>
+        <v>996</v>
       </c>
       <c r="B682" t="s">
         <v>4</v>
@@ -11165,7 +11168,7 @@
     </row>
     <row r="683" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>996</v>
+        <v>28</v>
       </c>
       <c r="B683" t="s">
         <v>4</v>
@@ -11176,18 +11179,18 @@
     </row>
     <row r="684" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>28</v>
+        <v>711</v>
       </c>
       <c r="B684" t="s">
         <v>4</v>
       </c>
       <c r="C684" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="685" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>711</v>
+        <v>557</v>
       </c>
       <c r="B685" t="s">
         <v>4</v>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="686" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B686" t="s">
         <v>4</v>
@@ -11209,51 +11212,51 @@
     </row>
     <row r="687" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>560</v>
+        <v>1047</v>
       </c>
       <c r="B687" t="s">
         <v>4</v>
       </c>
       <c r="C687" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="688" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1048</v>
+        <v>1079</v>
       </c>
       <c r="B688" t="s">
         <v>4</v>
       </c>
       <c r="C688" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="689" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>1080</v>
+        <v>756</v>
       </c>
       <c r="B689" t="s">
         <v>4</v>
       </c>
       <c r="C689" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="690" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>756</v>
+        <v>283</v>
       </c>
       <c r="B690" t="s">
         <v>4</v>
       </c>
       <c r="C690" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>283</v>
+        <v>970</v>
       </c>
       <c r="B691" t="s">
         <v>4</v>
@@ -11264,51 +11267,51 @@
     </row>
     <row r="692" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>970</v>
+        <v>318</v>
       </c>
       <c r="B692" t="s">
         <v>4</v>
       </c>
       <c r="C692" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="693" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="B693" t="s">
         <v>4</v>
       </c>
       <c r="C693" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="694" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B694" t="s">
         <v>4</v>
       </c>
       <c r="C694" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="695" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>280</v>
+        <v>533</v>
       </c>
       <c r="B695" t="s">
         <v>4</v>
       </c>
       <c r="C695" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
       <c r="B696" t="s">
         <v>4</v>
@@ -11317,20 +11320,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>613</v>
+        <v>1035</v>
       </c>
       <c r="B697" t="s">
         <v>4</v>
       </c>
       <c r="C697" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="698" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1036</v>
+        <v>312</v>
       </c>
       <c r="B698" t="s">
         <v>4</v>
@@ -11341,29 +11344,29 @@
     </row>
     <row r="699" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B699" t="s">
         <v>4</v>
       </c>
       <c r="C699" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="700" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B700" t="s">
         <v>4</v>
       </c>
       <c r="C700" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="701" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B701" t="s">
         <v>4</v>
@@ -11374,7 +11377,7 @@
     </row>
     <row r="702" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="B702" t="s">
         <v>4</v>
@@ -11385,7 +11388,7 @@
     </row>
     <row r="703" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="B703" t="s">
         <v>4</v>
@@ -11396,7 +11399,7 @@
     </row>
     <row r="704" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B704" t="s">
         <v>4</v>
@@ -11407,40 +11410,40 @@
     </row>
     <row r="705" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>306</v>
+        <v>1080</v>
       </c>
       <c r="B705" t="s">
         <v>4</v>
       </c>
       <c r="C705" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="706" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>1081</v>
+        <v>305</v>
       </c>
       <c r="B706" t="s">
         <v>4</v>
       </c>
       <c r="C706" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="707" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>305</v>
+        <v>683</v>
       </c>
       <c r="B707" t="s">
         <v>4</v>
       </c>
       <c r="C707" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="708" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B708" t="s">
         <v>4</v>
@@ -11451,18 +11454,18 @@
     </row>
     <row r="709" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>692</v>
+        <v>302</v>
       </c>
       <c r="B709" t="s">
         <v>4</v>
       </c>
       <c r="C709" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="710" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B710" t="s">
         <v>4</v>
@@ -11473,18 +11476,18 @@
     </row>
     <row r="711" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>301</v>
+        <v>876</v>
       </c>
       <c r="B711" t="s">
         <v>4</v>
       </c>
       <c r="C711" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="712" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>876</v>
+        <v>971</v>
       </c>
       <c r="B712" t="s">
         <v>4</v>
@@ -11495,7 +11498,7 @@
     </row>
     <row r="713" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B713" t="s">
         <v>4</v>
@@ -11506,62 +11509,62 @@
     </row>
     <row r="714" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>972</v>
+        <v>242</v>
       </c>
       <c r="B714" t="s">
         <v>4</v>
       </c>
       <c r="C714" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="715" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>242</v>
+        <v>726</v>
       </c>
       <c r="B715" t="s">
         <v>4</v>
       </c>
       <c r="C715" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="716" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>726</v>
+        <v>870</v>
       </c>
       <c r="B716" t="s">
         <v>4</v>
       </c>
       <c r="C716" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="717" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>870</v>
+        <v>567</v>
       </c>
       <c r="B717" t="s">
         <v>4</v>
       </c>
       <c r="C717" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="718" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>567</v>
+        <v>233</v>
       </c>
       <c r="B718" t="s">
         <v>4</v>
       </c>
       <c r="C718" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="719" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B719" t="s">
         <v>4</v>
@@ -11572,18 +11575,18 @@
     </row>
     <row r="720" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="B720" t="s">
         <v>4</v>
       </c>
       <c r="C720" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="721" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>292</v>
+        <v>998</v>
       </c>
       <c r="B721" t="s">
         <v>4</v>
@@ -11594,18 +11597,18 @@
     </row>
     <row r="722" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>998</v>
+        <v>235</v>
       </c>
       <c r="B722" t="s">
         <v>4</v>
       </c>
       <c r="C722" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="723" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="B723" t="s">
         <v>4</v>
@@ -11616,7 +11619,7 @@
     </row>
     <row r="724" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="B724" t="s">
         <v>4</v>
@@ -11627,29 +11630,29 @@
     </row>
     <row r="725" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>234</v>
+        <v>543</v>
       </c>
       <c r="B725" t="s">
         <v>4</v>
       </c>
       <c r="C725" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="726" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>543</v>
+        <v>294</v>
       </c>
       <c r="B726" t="s">
         <v>4</v>
       </c>
       <c r="C726" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="727" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>294</v>
+        <v>493</v>
       </c>
       <c r="B727" t="s">
         <v>4</v>
@@ -11660,7 +11663,7 @@
     </row>
     <row r="728" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>493</v>
+        <v>228</v>
       </c>
       <c r="B728" t="s">
         <v>4</v>
@@ -11671,7 +11674,7 @@
     </row>
     <row r="729" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>228</v>
+        <v>1036</v>
       </c>
       <c r="B729" t="s">
         <v>4</v>
@@ -11682,18 +11685,18 @@
     </row>
     <row r="730" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>1037</v>
+        <v>575</v>
       </c>
       <c r="B730" t="s">
         <v>4</v>
       </c>
       <c r="C730" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="731" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B731" t="s">
         <v>4</v>
@@ -11704,7 +11707,7 @@
     </row>
     <row r="732" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="B732" t="s">
         <v>4</v>
@@ -11713,42 +11716,42 @@
         <v>507</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B733" t="s">
         <v>4</v>
       </c>
       <c r="C733" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="734" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>549</v>
+        <v>742</v>
       </c>
       <c r="B734" t="s">
         <v>4</v>
       </c>
       <c r="C734" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="735" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>742</v>
+        <v>512</v>
       </c>
       <c r="B735" t="s">
         <v>4</v>
       </c>
       <c r="C735" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="B736" t="s">
         <v>4</v>
@@ -11759,7 +11762,7 @@
     </row>
     <row r="737" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="B737" t="s">
         <v>4</v>
@@ -11770,7 +11773,7 @@
     </row>
     <row r="738" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>614</v>
+        <v>718</v>
       </c>
       <c r="B738" t="s">
         <v>4</v>
@@ -11779,9 +11782,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>718</v>
+        <v>586</v>
       </c>
       <c r="B739" t="s">
         <v>4</v>
@@ -11792,7 +11795,7 @@
     </row>
     <row r="740" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
       <c r="B740" t="s">
         <v>4</v>
@@ -11803,7 +11806,7 @@
     </row>
     <row r="741" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>616</v>
+        <v>674</v>
       </c>
       <c r="B741" t="s">
         <v>4</v>
@@ -11814,7 +11817,7 @@
     </row>
     <row r="742" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>674</v>
+        <v>715</v>
       </c>
       <c r="B742" t="s">
         <v>4</v>
@@ -11825,18 +11828,18 @@
     </row>
     <row r="743" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="B743" t="s">
         <v>4</v>
       </c>
       <c r="C743" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="744" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>740</v>
+        <v>221</v>
       </c>
       <c r="B744" t="s">
         <v>4</v>
@@ -11847,29 +11850,29 @@
     </row>
     <row r="745" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>221</v>
+        <v>731</v>
       </c>
       <c r="B745" t="s">
         <v>4</v>
       </c>
       <c r="C745" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="746" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>731</v>
+        <v>220</v>
       </c>
       <c r="B746" t="s">
         <v>4</v>
       </c>
       <c r="C746" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="747" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B747" t="s">
         <v>4</v>
@@ -11880,7 +11883,7 @@
     </row>
     <row r="748" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B748" t="s">
         <v>4</v>
@@ -11891,40 +11894,40 @@
     </row>
     <row r="749" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="B749" t="s">
         <v>4</v>
       </c>
       <c r="C749" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="750" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>281</v>
+        <v>489</v>
       </c>
       <c r="B750" t="s">
         <v>4</v>
       </c>
       <c r="C750" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="751" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>489</v>
+        <v>265</v>
       </c>
       <c r="B751" t="s">
         <v>4</v>
       </c>
       <c r="C751" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="752" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B752" t="s">
         <v>4</v>
@@ -11935,7 +11938,7 @@
     </row>
     <row r="753" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B753" t="s">
         <v>4</v>
@@ -11946,7 +11949,7 @@
     </row>
     <row r="754" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B754" t="s">
         <v>4</v>
@@ -11957,7 +11960,7 @@
     </row>
     <row r="755" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B755" t="s">
         <v>4</v>
@@ -11968,7 +11971,7 @@
     </row>
     <row r="756" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B756" t="s">
         <v>4</v>
@@ -11979,7 +11982,7 @@
     </row>
     <row r="757" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B757" t="s">
         <v>4</v>
@@ -11990,18 +11993,18 @@
     </row>
     <row r="758" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>254</v>
+        <v>508</v>
       </c>
       <c r="B758" t="s">
         <v>4</v>
       </c>
       <c r="C758" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="759" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>508</v>
+        <v>273</v>
       </c>
       <c r="B759" t="s">
         <v>4</v>
@@ -12012,18 +12015,18 @@
     </row>
     <row r="760" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B760" t="s">
         <v>4</v>
       </c>
       <c r="C760" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="761" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>272</v>
+        <v>743</v>
       </c>
       <c r="B761" t="s">
         <v>4</v>
@@ -12034,7 +12037,7 @@
     </row>
     <row r="762" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>743</v>
+        <v>252</v>
       </c>
       <c r="B762" t="s">
         <v>4</v>
@@ -12045,7 +12048,7 @@
     </row>
     <row r="763" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B763" t="s">
         <v>4</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="764" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B764" t="s">
         <v>4</v>
@@ -12067,7 +12070,7 @@
     </row>
     <row r="765" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B765" t="s">
         <v>4</v>
@@ -12078,18 +12081,18 @@
     </row>
     <row r="766" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="B766" t="s">
         <v>4</v>
       </c>
       <c r="C766" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="767" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B767" t="s">
         <v>4</v>
@@ -12100,40 +12103,40 @@
     </row>
     <row r="768" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="B768" t="s">
         <v>4</v>
       </c>
       <c r="C768" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="769" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>268</v>
+        <v>574</v>
       </c>
       <c r="B769" t="s">
         <v>4</v>
       </c>
       <c r="C769" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="770" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>574</v>
+        <v>290</v>
       </c>
       <c r="B770" t="s">
         <v>4</v>
       </c>
       <c r="C770" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="771" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B771" t="s">
         <v>4</v>
@@ -12144,7 +12147,7 @@
     </row>
     <row r="772" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B772" t="s">
         <v>4</v>
@@ -12155,7 +12158,7 @@
     </row>
     <row r="773" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B773" t="s">
         <v>4</v>
@@ -12166,18 +12169,18 @@
     </row>
     <row r="774" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="B774" t="s">
         <v>4</v>
       </c>
       <c r="C774" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="775" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B775" t="s">
         <v>4</v>
@@ -12188,18 +12191,18 @@
     </row>
     <row r="776" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="B776" t="s">
         <v>4</v>
       </c>
       <c r="C776" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="777" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B777" t="s">
         <v>4</v>
@@ -12210,7 +12213,7 @@
     </row>
     <row r="778" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B778" t="s">
         <v>4</v>
@@ -12221,7 +12224,7 @@
     </row>
     <row r="779" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B779" t="s">
         <v>4</v>
@@ -12232,7 +12235,7 @@
     </row>
     <row r="780" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B780" t="s">
         <v>4</v>
@@ -12243,7 +12246,7 @@
     </row>
     <row r="781" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B781" t="s">
         <v>4</v>
@@ -12254,7 +12257,7 @@
     </row>
     <row r="782" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B782" t="s">
         <v>4</v>
@@ -12265,7 +12268,7 @@
     </row>
     <row r="783" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B783" t="s">
         <v>4</v>
@@ -12276,7 +12279,7 @@
     </row>
     <row r="784" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B784" t="s">
         <v>4</v>
@@ -12287,51 +12290,51 @@
     </row>
     <row r="785" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>247</v>
+        <v>1040</v>
       </c>
       <c r="B785" t="s">
         <v>4</v>
       </c>
       <c r="C785" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="786" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>1041</v>
+        <v>210</v>
       </c>
       <c r="B786" t="s">
         <v>4</v>
       </c>
       <c r="C786" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="787" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B787" t="s">
         <v>4</v>
       </c>
       <c r="C787" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="788" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>205</v>
+        <v>693</v>
       </c>
       <c r="B788" t="s">
         <v>4</v>
       </c>
       <c r="C788" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="789" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B789" t="s">
         <v>4</v>
@@ -12342,7 +12345,7 @@
     </row>
     <row r="790" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="B790" t="s">
         <v>4</v>
@@ -12353,7 +12356,7 @@
     </row>
     <row r="791" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>729</v>
+        <v>680</v>
       </c>
       <c r="B791" t="s">
         <v>4</v>
@@ -12364,7 +12367,7 @@
     </row>
     <row r="792" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>680</v>
+        <v>748</v>
       </c>
       <c r="B792" t="s">
         <v>4</v>
@@ -12375,7 +12378,7 @@
     </row>
     <row r="793" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B793" t="s">
         <v>4</v>
@@ -12386,7 +12389,7 @@
     </row>
     <row r="794" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B794" t="s">
         <v>4</v>
@@ -12397,7 +12400,7 @@
     </row>
     <row r="795" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>746</v>
+        <v>678</v>
       </c>
       <c r="B795" t="s">
         <v>4</v>
@@ -12408,18 +12411,18 @@
     </row>
     <row r="796" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>678</v>
+        <v>253</v>
       </c>
       <c r="B796" t="s">
         <v>4</v>
       </c>
       <c r="C796" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="797" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>253</v>
+        <v>745</v>
       </c>
       <c r="B797" t="s">
         <v>4</v>
@@ -12430,7 +12433,7 @@
     </row>
     <row r="798" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>745</v>
+        <v>239</v>
       </c>
       <c r="B798" t="s">
         <v>4</v>
@@ -12441,7 +12444,7 @@
     </row>
     <row r="799" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B799" t="s">
         <v>4</v>
@@ -12452,7 +12455,7 @@
     </row>
     <row r="800" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B800" t="s">
         <v>4</v>
@@ -12463,7 +12466,7 @@
     </row>
     <row r="801" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B801" t="s">
         <v>4</v>
@@ -12474,7 +12477,7 @@
     </row>
     <row r="802" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B802" t="s">
         <v>4</v>
@@ -12485,7 +12488,7 @@
     </row>
     <row r="803" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B803" t="s">
         <v>4</v>
@@ -12496,7 +12499,7 @@
     </row>
     <row r="804" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B804" t="s">
         <v>4</v>
@@ -12507,7 +12510,7 @@
     </row>
     <row r="805" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>243</v>
+        <v>491</v>
       </c>
       <c r="B805" t="s">
         <v>4</v>
@@ -12518,62 +12521,62 @@
     </row>
     <row r="806" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>491</v>
+        <v>204</v>
       </c>
       <c r="B806" t="s">
         <v>4</v>
       </c>
       <c r="C806" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="807" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>204</v>
+        <v>579</v>
       </c>
       <c r="B807" t="s">
         <v>4</v>
       </c>
       <c r="C807" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="808" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>579</v>
+        <v>492</v>
       </c>
       <c r="B808" t="s">
         <v>4</v>
       </c>
       <c r="C808" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="809" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>492</v>
+        <v>672</v>
       </c>
       <c r="B809" t="s">
         <v>4</v>
       </c>
       <c r="C809" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="810" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>672</v>
+        <v>251</v>
       </c>
       <c r="B810" t="s">
         <v>4</v>
       </c>
       <c r="C810" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="811" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B811" t="s">
         <v>4</v>
@@ -12584,18 +12587,18 @@
     </row>
     <row r="812" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>246</v>
+        <v>490</v>
       </c>
       <c r="B812" t="s">
         <v>4</v>
       </c>
       <c r="C812" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="813" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B813" t="s">
         <v>4</v>
@@ -12604,31 +12607,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="814" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>521</v>
+        <v>671</v>
       </c>
       <c r="B814" t="s">
         <v>4</v>
       </c>
       <c r="C814" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="815" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>671</v>
+        <v>238</v>
       </c>
       <c r="B815" t="s">
         <v>4</v>
       </c>
       <c r="C815" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="816" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B816" t="s">
         <v>4</v>
@@ -12637,20 +12640,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="817" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>237</v>
+        <v>676</v>
       </c>
       <c r="B817" t="s">
         <v>4</v>
       </c>
       <c r="C817" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="818" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="B818" t="s">
         <v>4</v>
@@ -12661,18 +12664,18 @@
     </row>
     <row r="819" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
       <c r="B819" t="s">
         <v>4</v>
       </c>
       <c r="C819" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="820" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>744</v>
+        <v>289</v>
       </c>
       <c r="B820" t="s">
         <v>4</v>
@@ -12681,97 +12684,97 @@
         <v>57</v>
       </c>
     </row>
-    <row r="821" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>289</v>
+        <v>582</v>
       </c>
       <c r="B821" t="s">
         <v>4</v>
       </c>
       <c r="C821" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="822" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>582</v>
+        <v>232</v>
       </c>
       <c r="B822" t="s">
         <v>4</v>
       </c>
       <c r="C822" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="823" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>232</v>
+        <v>681</v>
       </c>
       <c r="B823" t="s">
         <v>4</v>
       </c>
       <c r="C823" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="824" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>681</v>
+        <v>232</v>
       </c>
       <c r="B824" t="s">
         <v>4</v>
       </c>
       <c r="C824" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="825" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>232</v>
+        <v>679</v>
       </c>
       <c r="B825" t="s">
         <v>4</v>
       </c>
       <c r="C825" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="826" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>679</v>
+        <v>207</v>
       </c>
       <c r="B826" t="s">
         <v>4</v>
       </c>
       <c r="C826" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="827" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>207</v>
+        <v>1060</v>
       </c>
       <c r="B827" t="s">
         <v>4</v>
       </c>
       <c r="C827" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="828" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>1061</v>
+        <v>601</v>
       </c>
       <c r="B828" t="s">
         <v>4</v>
       </c>
       <c r="C828" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="829" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>601</v>
+        <v>231</v>
       </c>
       <c r="B829" t="s">
         <v>4</v>
@@ -12782,7 +12785,7 @@
     </row>
     <row r="830" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B830" t="s">
         <v>4</v>
@@ -12793,7 +12796,7 @@
     </row>
     <row r="831" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B831" t="s">
         <v>4</v>
@@ -12802,20 +12805,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="832" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>230</v>
+        <v>679</v>
       </c>
       <c r="B832" t="s">
         <v>4</v>
       </c>
       <c r="C832" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="833" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="B833" t="s">
         <v>4</v>
@@ -12824,9 +12827,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="834" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="B834" t="s">
         <v>4</v>
@@ -12837,62 +12840,62 @@
     </row>
     <row r="835" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>698</v>
+        <v>227</v>
       </c>
       <c r="B835" t="s">
         <v>4</v>
       </c>
       <c r="C835" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="836" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B836" t="s">
         <v>4</v>
       </c>
       <c r="C836" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="837" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>226</v>
+        <v>695</v>
       </c>
       <c r="B837" t="s">
         <v>4</v>
       </c>
       <c r="C837" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="838" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>695</v>
+        <v>201</v>
       </c>
       <c r="B838" t="s">
         <v>4</v>
       </c>
       <c r="C838" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="839" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>201</v>
+        <v>1011</v>
       </c>
       <c r="B839" t="s">
         <v>4</v>
       </c>
       <c r="C839" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="840" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B840" t="s">
         <v>4</v>
@@ -12903,18 +12906,18 @@
     </row>
     <row r="841" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1012</v>
+        <v>199</v>
       </c>
       <c r="B841" t="s">
         <v>4</v>
       </c>
       <c r="C841" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="842" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="B842" t="s">
         <v>4</v>
@@ -12925,7 +12928,7 @@
     </row>
     <row r="843" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>287</v>
+        <v>1003</v>
       </c>
       <c r="B843" t="s">
         <v>4</v>
@@ -12936,18 +12939,18 @@
     </row>
     <row r="844" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="B844" t="s">
         <v>4</v>
       </c>
       <c r="C844" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="845" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B845" t="s">
         <v>4</v>
@@ -12958,7 +12961,7 @@
     </row>
     <row r="846" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>1016</v>
+        <v>1082</v>
       </c>
       <c r="B846" t="s">
         <v>4</v>
@@ -12969,18 +12972,18 @@
     </row>
     <row r="847" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>1083</v>
+        <v>225</v>
       </c>
       <c r="B847" t="s">
         <v>4</v>
       </c>
       <c r="C847" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="848" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B848" t="s">
         <v>4</v>
@@ -12991,7 +12994,7 @@
     </row>
     <row r="849" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B849" t="s">
         <v>4</v>
@@ -13002,7 +13005,7 @@
     </row>
     <row r="850" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B850" t="s">
         <v>4</v>
@@ -13013,18 +13016,18 @@
     </row>
     <row r="851" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B851" t="s">
         <v>4</v>
       </c>
       <c r="C851" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>190</v>
+        <v>977</v>
       </c>
       <c r="B852" t="s">
         <v>4</v>
@@ -13035,7 +13038,7 @@
     </row>
     <row r="853" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B853" t="s">
         <v>4</v>
@@ -13046,7 +13049,7 @@
     </row>
     <row r="854" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B854" t="s">
         <v>4</v>
@@ -13057,29 +13060,29 @@
     </row>
     <row r="855" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>979</v>
+        <v>217</v>
       </c>
       <c r="B855" t="s">
         <v>4</v>
       </c>
       <c r="C855" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="856" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B856" t="s">
         <v>4</v>
       </c>
       <c r="C856" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="857" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B857" t="s">
         <v>4</v>
@@ -13090,18 +13093,18 @@
     </row>
     <row r="858" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>215</v>
+        <v>487</v>
       </c>
       <c r="B858" t="s">
         <v>4</v>
       </c>
       <c r="C858" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>487</v>
+        <v>189</v>
       </c>
       <c r="B859" t="s">
         <v>4</v>
@@ -13112,7 +13115,7 @@
     </row>
     <row r="860" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>189</v>
+        <v>980</v>
       </c>
       <c r="B860" t="s">
         <v>4</v>
@@ -13123,7 +13126,7 @@
     </row>
     <row r="861" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B861" t="s">
         <v>4</v>
@@ -13134,51 +13137,51 @@
     </row>
     <row r="862" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>981</v>
+        <v>208</v>
       </c>
       <c r="B862" t="s">
         <v>4</v>
       </c>
       <c r="C862" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="863" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B863" t="s">
         <v>4</v>
       </c>
       <c r="C863" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="864" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B864" t="s">
         <v>4</v>
       </c>
       <c r="C864" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="865" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="B865" t="s">
         <v>4</v>
       </c>
       <c r="C865" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="866" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="B866" t="s">
         <v>4</v>
@@ -13187,9 +13190,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B867" t="s">
         <v>4</v>
@@ -13200,7 +13203,7 @@
     </row>
     <row r="868" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="B868" t="s">
         <v>4</v>
@@ -13211,7 +13214,7 @@
     </row>
     <row r="869" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>286</v>
+        <v>181</v>
       </c>
       <c r="B869" t="s">
         <v>4</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="870" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B870" t="s">
         <v>4</v>
@@ -13233,7 +13236,7 @@
     </row>
     <row r="871" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B871" t="s">
         <v>4</v>
@@ -13242,9 +13245,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B872" t="s">
         <v>4</v>
@@ -13253,9 +13256,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>173</v>
+        <v>739</v>
       </c>
       <c r="B873" t="s">
         <v>4</v>
@@ -13264,9 +13267,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>739</v>
+        <v>172</v>
       </c>
       <c r="B874" t="s">
         <v>4</v>
@@ -13277,7 +13280,7 @@
     </row>
     <row r="875" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B875" t="s">
         <v>4</v>
@@ -13288,7 +13291,7 @@
     </row>
     <row r="876" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B876" t="s">
         <v>4</v>
@@ -13299,7 +13302,7 @@
     </row>
     <row r="877" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B877" t="s">
         <v>4</v>
@@ -13310,13 +13313,13 @@
     </row>
     <row r="878" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>169</v>
+        <v>1061</v>
       </c>
       <c r="B878" t="s">
         <v>4</v>
       </c>
       <c r="C878" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="879" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
@@ -13332,29 +13335,29 @@
     </row>
     <row r="880" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>1063</v>
+        <v>203</v>
       </c>
       <c r="B880" t="s">
         <v>4</v>
       </c>
       <c r="C880" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="881" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B881" t="s">
         <v>4</v>
       </c>
       <c r="C881" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="882" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="B882" t="s">
         <v>4</v>
@@ -13365,7 +13368,7 @@
     </row>
     <row r="883" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="B883" t="s">
         <v>4</v>
@@ -13376,7 +13379,7 @@
     </row>
     <row r="884" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>200</v>
+        <v>1063</v>
       </c>
       <c r="B884" t="s">
         <v>4</v>
@@ -13387,18 +13390,18 @@
     </row>
     <row r="885" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>1064</v>
+        <v>689</v>
       </c>
       <c r="B885" t="s">
         <v>4</v>
       </c>
       <c r="C885" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="886" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B886" t="s">
         <v>4</v>
@@ -13409,18 +13412,18 @@
     </row>
     <row r="887" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>688</v>
+        <v>152</v>
       </c>
       <c r="B887" t="s">
         <v>4</v>
       </c>
       <c r="C887" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="888" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="B888" t="s">
         <v>4</v>
@@ -13431,7 +13434,7 @@
     </row>
     <row r="889" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>198</v>
+        <v>488</v>
       </c>
       <c r="B889" t="s">
         <v>4</v>
@@ -13442,7 +13445,7 @@
     </row>
     <row r="890" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>488</v>
+        <v>152</v>
       </c>
       <c r="B890" t="s">
         <v>4</v>
@@ -13453,51 +13456,51 @@
     </row>
     <row r="891" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B891" t="s">
         <v>4</v>
       </c>
       <c r="C891" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="892" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B892" t="s">
         <v>4</v>
       </c>
       <c r="C892" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="893" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="B893" t="s">
         <v>4</v>
       </c>
       <c r="C893" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="894" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>195</v>
+        <v>982</v>
       </c>
       <c r="B894" t="s">
         <v>4</v>
       </c>
       <c r="C894" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="895" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>982</v>
+        <v>145</v>
       </c>
       <c r="B895" t="s">
         <v>4</v>
@@ -13506,9 +13509,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>145</v>
+        <v>482</v>
       </c>
       <c r="B896" t="s">
         <v>4</v>
@@ -13519,7 +13522,7 @@
     </row>
     <row r="897" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>482</v>
+        <v>142</v>
       </c>
       <c r="B897" t="s">
         <v>4</v>
@@ -13530,7 +13533,7 @@
     </row>
     <row r="898" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="B898" t="s">
         <v>4</v>
@@ -13541,7 +13544,7 @@
     </row>
     <row r="899" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>13</v>
+        <v>411</v>
       </c>
       <c r="B899" t="s">
         <v>4</v>
@@ -13552,7 +13555,7 @@
     </row>
     <row r="900" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>411</v>
+        <v>140</v>
       </c>
       <c r="B900" t="s">
         <v>4</v>
@@ -13563,7 +13566,7 @@
     </row>
     <row r="901" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B901" t="s">
         <v>4</v>
@@ -13574,7 +13577,7 @@
     </row>
     <row r="902" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>139</v>
+        <v>423</v>
       </c>
       <c r="B902" t="s">
         <v>4</v>
@@ -13585,29 +13588,29 @@
     </row>
     <row r="903" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>423</v>
+        <v>150</v>
       </c>
       <c r="B903" t="s">
         <v>4</v>
       </c>
       <c r="C903" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="904" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>150</v>
+        <v>425</v>
       </c>
       <c r="B904" t="s">
         <v>4</v>
       </c>
       <c r="C904" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="905" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>425</v>
+        <v>137</v>
       </c>
       <c r="B905" t="s">
         <v>4</v>
@@ -13618,7 +13621,7 @@
     </row>
     <row r="906" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B906" t="s">
         <v>4</v>
@@ -13629,29 +13632,29 @@
     </row>
     <row r="907" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>136</v>
+        <v>663</v>
       </c>
       <c r="B907" t="s">
         <v>4</v>
       </c>
       <c r="C907" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="908" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="B908" t="s">
         <v>4</v>
       </c>
       <c r="C908" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="909" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>738</v>
+        <v>158</v>
       </c>
       <c r="B909" t="s">
         <v>4</v>
@@ -13662,29 +13665,29 @@
     </row>
     <row r="910" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>158</v>
+        <v>702</v>
       </c>
       <c r="B910" t="s">
         <v>4</v>
       </c>
       <c r="C910" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="911" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>702</v>
+        <v>156</v>
       </c>
       <c r="B911" t="s">
         <v>4</v>
       </c>
       <c r="C911" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="912" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>156</v>
+        <v>485</v>
       </c>
       <c r="B912" t="s">
         <v>4</v>
@@ -13695,18 +13698,18 @@
     </row>
     <row r="913" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>485</v>
+        <v>148</v>
       </c>
       <c r="B913" t="s">
         <v>4</v>
       </c>
       <c r="C913" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="914" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>148</v>
+        <v>483</v>
       </c>
       <c r="B914" t="s">
         <v>4</v>
@@ -13717,18 +13720,18 @@
     </row>
     <row r="915" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>483</v>
+        <v>155</v>
       </c>
       <c r="B915" t="s">
         <v>4</v>
       </c>
       <c r="C915" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="916" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B916" t="s">
         <v>4</v>
@@ -13739,7 +13742,7 @@
     </row>
     <row r="917" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B917" t="s">
         <v>4</v>
@@ -13750,62 +13753,62 @@
     </row>
     <row r="918" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B918" t="s">
         <v>4</v>
       </c>
       <c r="C918" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="919" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B919" t="s">
         <v>4</v>
       </c>
       <c r="C919" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="920" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B920" t="s">
         <v>4</v>
       </c>
       <c r="C920" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="921" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>138</v>
+        <v>584</v>
       </c>
       <c r="B921" t="s">
         <v>4</v>
       </c>
       <c r="C921" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="922" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>584</v>
+        <v>1042</v>
       </c>
       <c r="B922" t="s">
         <v>4</v>
       </c>
       <c r="C922" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="923" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>1043</v>
+        <v>484</v>
       </c>
       <c r="B923" t="s">
         <v>4</v>
@@ -13816,18 +13819,18 @@
     </row>
     <row r="924" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="B924" t="s">
         <v>4</v>
       </c>
       <c r="C924" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="925" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>522</v>
+        <v>134</v>
       </c>
       <c r="B925" t="s">
         <v>4</v>
@@ -13838,7 +13841,7 @@
     </row>
     <row r="926" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>134</v>
+        <v>509</v>
       </c>
       <c r="B926" t="s">
         <v>4</v>
@@ -13849,7 +13852,7 @@
     </row>
     <row r="927" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>509</v>
+        <v>129</v>
       </c>
       <c r="B927" t="s">
         <v>4</v>
@@ -13860,51 +13863,51 @@
     </row>
     <row r="928" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>129</v>
+        <v>677</v>
       </c>
       <c r="B928" t="s">
         <v>4</v>
       </c>
       <c r="C928" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="929" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>677</v>
+        <v>885</v>
       </c>
       <c r="B929" t="s">
         <v>4</v>
       </c>
       <c r="C929" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="930" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>885</v>
+        <v>666</v>
       </c>
       <c r="B930" t="s">
         <v>4</v>
       </c>
       <c r="C930" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="931" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>666</v>
+        <v>452</v>
       </c>
       <c r="B931" t="s">
         <v>4</v>
       </c>
       <c r="C931" t="s">
-        <v>507</v>
+        <v>5</v>
       </c>
     </row>
     <row r="932" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B932" t="s">
         <v>4</v>
@@ -13915,62 +13918,62 @@
     </row>
     <row r="933" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>453</v>
+        <v>58</v>
       </c>
       <c r="B933" t="s">
         <v>4</v>
       </c>
       <c r="C933" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="934" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>58</v>
+        <v>455</v>
       </c>
       <c r="B934" t="s">
         <v>4</v>
       </c>
       <c r="C934" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="935" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>455</v>
+        <v>135</v>
       </c>
       <c r="B935" t="s">
         <v>4</v>
       </c>
       <c r="C935" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="936" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B936" t="s">
         <v>4</v>
       </c>
       <c r="C936" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="937" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>128</v>
+        <v>684</v>
       </c>
       <c r="B937" t="s">
         <v>4</v>
       </c>
       <c r="C937" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="938" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="B938" t="s">
         <v>4</v>
@@ -13981,29 +13984,29 @@
     </row>
     <row r="939" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>694</v>
+        <v>114</v>
       </c>
       <c r="B939" t="s">
         <v>4</v>
       </c>
       <c r="C939" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="940" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>114</v>
+        <v>667</v>
       </c>
       <c r="B940" t="s">
         <v>4</v>
       </c>
       <c r="C940" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="941" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="B941" t="s">
         <v>4</v>
@@ -14014,7 +14017,7 @@
     </row>
     <row r="942" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="B942" t="s">
         <v>4</v>
@@ -14025,7 +14028,7 @@
     </row>
     <row r="943" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>675</v>
+        <v>727</v>
       </c>
       <c r="B943" t="s">
         <v>4</v>
@@ -14036,7 +14039,7 @@
     </row>
     <row r="944" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>727</v>
+        <v>622</v>
       </c>
       <c r="B944" t="s">
         <v>4</v>
@@ -14047,7 +14050,7 @@
     </row>
     <row r="945" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="B945" t="s">
         <v>4</v>
@@ -14058,7 +14061,7 @@
     </row>
     <row r="946" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="B946" t="s">
         <v>4</v>
@@ -14069,7 +14072,7 @@
     </row>
     <row r="947" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B947" t="s">
         <v>4</v>
@@ -14080,7 +14083,7 @@
     </row>
     <row r="948" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B948" t="s">
         <v>4</v>
@@ -14091,7 +14094,7 @@
     </row>
     <row r="949" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="B949" t="s">
         <v>4</v>
@@ -14102,7 +14105,7 @@
     </row>
     <row r="950" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="B950" t="s">
         <v>4</v>
@@ -14113,18 +14116,18 @@
     </row>
     <row r="951" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>670</v>
+        <v>113</v>
       </c>
       <c r="B951" t="s">
         <v>4</v>
       </c>
       <c r="C951" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="952" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B952" t="s">
         <v>4</v>
@@ -14135,7 +14138,7 @@
     </row>
     <row r="953" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B953" t="s">
         <v>4</v>
@@ -14146,7 +14149,7 @@
     </row>
     <row r="954" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B954" t="s">
         <v>4</v>
@@ -14157,7 +14160,7 @@
     </row>
     <row r="955" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>127</v>
+        <v>524</v>
       </c>
       <c r="B955" t="s">
         <v>4</v>
@@ -14168,7 +14171,7 @@
     </row>
     <row r="956" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>524</v>
+        <v>131</v>
       </c>
       <c r="B956" t="s">
         <v>4</v>
@@ -14179,7 +14182,7 @@
     </row>
     <row r="957" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>131</v>
+        <v>515</v>
       </c>
       <c r="B957" t="s">
         <v>4</v>
@@ -14190,7 +14193,7 @@
     </row>
     <row r="958" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>515</v>
+        <v>126</v>
       </c>
       <c r="B958" t="s">
         <v>4</v>
@@ -14201,7 +14204,7 @@
     </row>
     <row r="959" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B959" t="s">
         <v>4</v>
@@ -14212,7 +14215,7 @@
     </row>
     <row r="960" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>112</v>
+        <v>1083</v>
       </c>
       <c r="B960" t="s">
         <v>4</v>
@@ -14223,7 +14226,7 @@
     </row>
     <row r="961" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>1084</v>
+        <v>130</v>
       </c>
       <c r="B961" t="s">
         <v>4</v>
@@ -14234,7 +14237,7 @@
     </row>
     <row r="962" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B962" t="s">
         <v>4</v>
@@ -14245,7 +14248,7 @@
     </row>
     <row r="963" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B963" t="s">
         <v>4</v>
@@ -14256,7 +14259,7 @@
     </row>
     <row r="964" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>125</v>
+        <v>285</v>
       </c>
       <c r="B964" t="s">
         <v>4</v>
@@ -14267,7 +14270,7 @@
     </row>
     <row r="965" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="B965" t="s">
         <v>4</v>
@@ -14278,7 +14281,7 @@
     </row>
     <row r="966" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B966" t="s">
         <v>4</v>
@@ -14289,7 +14292,7 @@
     </row>
     <row r="967" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B967" t="s">
         <v>4</v>
@@ -14300,29 +14303,29 @@
     </row>
     <row r="968" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>121</v>
+        <v>1050</v>
       </c>
       <c r="B968" t="s">
         <v>4</v>
       </c>
       <c r="C968" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="969" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>1051</v>
+        <v>999</v>
       </c>
       <c r="B969" t="s">
         <v>4</v>
       </c>
       <c r="C969" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="970" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>999</v>
+        <v>479</v>
       </c>
       <c r="B970" t="s">
         <v>4</v>
@@ -14333,7 +14336,7 @@
     </row>
     <row r="971" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>479</v>
+        <v>1010</v>
       </c>
       <c r="B971" t="s">
         <v>4</v>
@@ -14344,7 +14347,7 @@
     </row>
     <row r="972" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>1010</v>
+        <v>111</v>
       </c>
       <c r="B972" t="s">
         <v>4</v>
@@ -14355,18 +14358,18 @@
     </row>
     <row r="973" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>111</v>
+        <v>673</v>
       </c>
       <c r="B973" t="s">
         <v>4</v>
       </c>
       <c r="C973" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="974" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>673</v>
+        <v>831</v>
       </c>
       <c r="B974" t="s">
         <v>4</v>
@@ -14377,7 +14380,7 @@
     </row>
     <row r="975" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>831</v>
+        <v>569</v>
       </c>
       <c r="B975" t="s">
         <v>4</v>
@@ -14388,18 +14391,18 @@
     </row>
     <row r="976" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>569</v>
+        <v>110</v>
       </c>
       <c r="B976" t="s">
         <v>4</v>
       </c>
       <c r="C976" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="977" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>110</v>
+        <v>1009</v>
       </c>
       <c r="B977" t="s">
         <v>4</v>
@@ -14410,7 +14413,7 @@
     </row>
     <row r="978" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>1009</v>
+        <v>117</v>
       </c>
       <c r="B978" t="s">
         <v>4</v>
@@ -14421,7 +14424,7 @@
     </row>
     <row r="979" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B979" t="s">
         <v>4</v>
@@ -14432,7 +14435,7 @@
     </row>
     <row r="980" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B980" t="s">
         <v>4</v>
@@ -14443,29 +14446,29 @@
     </row>
     <row r="981" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B981" t="s">
         <v>4</v>
       </c>
       <c r="C981" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="982" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B982" t="s">
         <v>4</v>
       </c>
       <c r="C982" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="983" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B983" t="s">
         <v>4</v>
@@ -14476,7 +14479,7 @@
     </row>
     <row r="984" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>115</v>
+        <v>1013</v>
       </c>
       <c r="B984" t="s">
         <v>4</v>
@@ -14487,7 +14490,7 @@
     </row>
     <row r="985" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B985" t="s">
         <v>4</v>
@@ -14498,7 +14501,7 @@
     </row>
     <row r="986" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>1014</v>
+        <v>102</v>
       </c>
       <c r="B986" t="s">
         <v>4</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="988" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B988" t="s">
         <v>4</v>
@@ -14531,7 +14534,7 @@
     </row>
     <row r="989" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="B989" t="s">
         <v>4</v>
@@ -14542,7 +14545,7 @@
     </row>
     <row r="990" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="B990" t="s">
         <v>4</v>
@@ -14553,7 +14556,7 @@
     </row>
     <row r="991" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B991" t="s">
         <v>4</v>
@@ -14564,29 +14567,29 @@
     </row>
     <row r="992" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B992" t="s">
         <v>4</v>
       </c>
       <c r="C992" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="993" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B993" t="s">
         <v>4</v>
       </c>
       <c r="C993" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="994" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B994" t="s">
         <v>4</v>
@@ -14597,29 +14600,29 @@
     </row>
     <row r="995" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B995" t="s">
         <v>4</v>
       </c>
       <c r="C995" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="996" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B996" t="s">
         <v>4</v>
       </c>
       <c r="C996" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="997" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>105</v>
+        <v>606</v>
       </c>
       <c r="B997" t="s">
         <v>4</v>
@@ -14630,7 +14633,7 @@
     </row>
     <row r="998" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>606</v>
+        <v>103</v>
       </c>
       <c r="B998" t="s">
         <v>4</v>
@@ -14641,40 +14644,40 @@
     </row>
     <row r="999" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B999" t="s">
         <v>4</v>
       </c>
       <c r="C999" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1000" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>100</v>
+        <v>599</v>
       </c>
       <c r="B1000" t="s">
         <v>4</v>
       </c>
       <c r="C1000" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1001" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>599</v>
+        <v>736</v>
       </c>
       <c r="B1001" t="s">
         <v>4</v>
       </c>
       <c r="C1001" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1002" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B1002" t="s">
         <v>4</v>
@@ -14685,29 +14688,29 @@
     </row>
     <row r="1003" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>737</v>
+        <v>27</v>
       </c>
       <c r="B1003" t="s">
         <v>4</v>
       </c>
       <c r="C1003" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1004" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="B1004" t="s">
         <v>4</v>
       </c>
       <c r="C1004" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1005" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>97</v>
+        <v>1041</v>
       </c>
       <c r="B1005" t="s">
         <v>4</v>
@@ -14718,7 +14721,7 @@
     </row>
     <row r="1006" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>1042</v>
+        <v>96</v>
       </c>
       <c r="B1006" t="s">
         <v>4</v>
@@ -14729,7 +14732,7 @@
     </row>
     <row r="1007" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1007" t="s">
         <v>4</v>
@@ -14740,7 +14743,7 @@
     </row>
     <row r="1008" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1008" t="s">
         <v>4</v>
@@ -14751,7 +14754,7 @@
     </row>
     <row r="1009" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B1009" t="s">
         <v>4</v>
@@ -14762,18 +14765,18 @@
     </row>
     <row r="1010" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>96</v>
+        <v>536</v>
       </c>
       <c r="B1010" t="s">
         <v>4</v>
       </c>
       <c r="C1010" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1011" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>536</v>
+        <v>92</v>
       </c>
       <c r="B1011" t="s">
         <v>4</v>
@@ -14784,29 +14787,29 @@
     </row>
     <row r="1012" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1012" t="s">
         <v>4</v>
       </c>
       <c r="C1012" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1013" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>91</v>
+        <v>528</v>
       </c>
       <c r="B1013" t="s">
         <v>4</v>
       </c>
       <c r="C1013" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1014" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>528</v>
+        <v>1037</v>
       </c>
       <c r="B1014" t="s">
         <v>4</v>
@@ -14817,7 +14820,7 @@
     </row>
     <row r="1015" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>1038</v>
+        <v>1000</v>
       </c>
       <c r="B1015" t="s">
         <v>4</v>
@@ -14828,29 +14831,29 @@
     </row>
     <row r="1016" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>1000</v>
+        <v>88</v>
       </c>
       <c r="B1016" t="s">
         <v>4</v>
       </c>
       <c r="C1016" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>88</v>
+        <v>1032</v>
       </c>
       <c r="B1017" t="s">
         <v>4</v>
       </c>
       <c r="C1017" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1018" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>1032</v>
+        <v>832</v>
       </c>
       <c r="B1018" t="s">
         <v>4</v>
@@ -14861,18 +14864,18 @@
     </row>
     <row r="1019" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>832</v>
+        <v>90</v>
       </c>
       <c r="B1019" t="s">
         <v>4</v>
       </c>
       <c r="C1019" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1020" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1020" t="s">
         <v>4</v>
@@ -14883,51 +14886,51 @@
     </row>
     <row r="1021" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>89</v>
+        <v>703</v>
       </c>
       <c r="B1021" t="s">
         <v>4</v>
       </c>
       <c r="C1021" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1022" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>703</v>
+        <v>476</v>
       </c>
       <c r="B1022" t="s">
         <v>4</v>
       </c>
       <c r="C1022" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1023" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="B1023" t="s">
         <v>4</v>
       </c>
       <c r="C1023" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1024" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>553</v>
+        <v>478</v>
       </c>
       <c r="B1024" t="s">
         <v>4</v>
       </c>
       <c r="C1024" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1025" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>478</v>
+        <v>85</v>
       </c>
       <c r="B1025" t="s">
         <v>4</v>
@@ -14938,7 +14941,7 @@
     </row>
     <row r="1026" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>85</v>
+        <v>829</v>
       </c>
       <c r="B1026" t="s">
         <v>4</v>
@@ -14949,62 +14952,62 @@
     </row>
     <row r="1027" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>829</v>
+        <v>1020</v>
       </c>
       <c r="B1027" t="s">
         <v>4</v>
       </c>
       <c r="C1027" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1028" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>1020</v>
+        <v>86</v>
       </c>
       <c r="B1028" t="s">
         <v>4</v>
       </c>
       <c r="C1028" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1029" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1029" t="s">
         <v>4</v>
       </c>
       <c r="C1029" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1030" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>84</v>
+        <v>654</v>
       </c>
       <c r="B1030" t="s">
         <v>4</v>
       </c>
       <c r="C1030" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1031" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>654</v>
+        <v>477</v>
       </c>
       <c r="B1031" t="s">
         <v>4</v>
       </c>
       <c r="C1031" t="s">
-        <v>507</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1032" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>477</v>
+        <v>83</v>
       </c>
       <c r="B1032" t="s">
         <v>4</v>
@@ -15015,29 +15018,29 @@
     </row>
     <row r="1033" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>83</v>
+        <v>573</v>
       </c>
       <c r="B1033" t="s">
         <v>4</v>
       </c>
       <c r="C1033" t="s">
-        <v>57</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1034" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="B1034" t="s">
         <v>4</v>
       </c>
       <c r="C1034" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1035" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>552</v>
+        <v>82</v>
       </c>
       <c r="B1035" t="s">
         <v>4</v>
@@ -15048,40 +15051,40 @@
     </row>
     <row r="1036" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>82</v>
+        <v>561</v>
       </c>
       <c r="B1036" t="s">
         <v>4</v>
       </c>
       <c r="C1036" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1037" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>561</v>
+        <v>81</v>
       </c>
       <c r="B1037" t="s">
         <v>4</v>
       </c>
       <c r="C1037" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1038" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>81</v>
+        <v>700</v>
       </c>
       <c r="B1038" t="s">
         <v>4</v>
       </c>
       <c r="C1038" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1039" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="B1039" t="s">
         <v>4</v>
@@ -15092,7 +15095,7 @@
     </row>
     <row r="1040" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>730</v>
+        <v>565</v>
       </c>
       <c r="B1040" t="s">
         <v>4</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="1041" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>565</v>
+        <v>705</v>
       </c>
       <c r="B1041" t="s">
         <v>4</v>
@@ -15114,7 +15117,7 @@
     </row>
     <row r="1042" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>705</v>
+        <v>577</v>
       </c>
       <c r="B1042" t="s">
         <v>4</v>
@@ -15125,7 +15128,7 @@
     </row>
     <row r="1043" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>577</v>
+        <v>714</v>
       </c>
       <c r="B1043" t="s">
         <v>4</v>
@@ -15136,7 +15139,7 @@
     </row>
     <row r="1044" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="B1044" t="s">
         <v>4</v>
@@ -15147,7 +15150,7 @@
     </row>
     <row r="1045" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="B1045" t="s">
         <v>4</v>
@@ -15158,7 +15161,7 @@
     </row>
     <row r="1046" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="B1046" t="s">
         <v>4</v>
@@ -15169,7 +15172,7 @@
     </row>
     <row r="1047" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>724</v>
+        <v>556</v>
       </c>
       <c r="B1047" t="s">
         <v>4</v>
@@ -15180,7 +15183,7 @@
     </row>
     <row r="1048" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>556</v>
+        <v>668</v>
       </c>
       <c r="B1048" t="s">
         <v>4</v>
@@ -15191,7 +15194,7 @@
     </row>
     <row r="1049" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>668</v>
+        <v>706</v>
       </c>
       <c r="B1049" t="s">
         <v>4</v>
@@ -15202,7 +15205,7 @@
     </row>
     <row r="1050" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>706</v>
+        <v>572</v>
       </c>
       <c r="B1050" t="s">
         <v>4</v>
@@ -15213,7 +15216,7 @@
     </row>
     <row r="1051" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B1051" t="s">
         <v>4</v>
@@ -15224,40 +15227,40 @@
     </row>
     <row r="1052" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="B1052" t="s">
         <v>4</v>
       </c>
       <c r="C1052" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1053" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>80</v>
+        <v>725</v>
       </c>
       <c r="B1053" t="s">
         <v>4</v>
       </c>
       <c r="C1053" t="s">
-        <v>14</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1054" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>725</v>
+        <v>79</v>
       </c>
       <c r="B1054" t="s">
         <v>4</v>
       </c>
       <c r="C1054" t="s">
-        <v>507</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1055" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B1055" t="s">
         <v>4</v>
@@ -15268,7 +15271,7 @@
     </row>
     <row r="1056" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B1056" t="s">
         <v>4</v>
@@ -15279,7 +15282,7 @@
     </row>
     <row r="1057" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>78</v>
+        <v>1004</v>
       </c>
       <c r="B1057" t="s">
         <v>4</v>
@@ -15290,7 +15293,7 @@
     </row>
     <row r="1058" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>1004</v>
+        <v>76</v>
       </c>
       <c r="B1058" t="s">
         <v>4</v>
@@ -15301,7 +15304,7 @@
     </row>
     <row r="1059" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1059" t="s">
         <v>4</v>
@@ -15312,7 +15315,7 @@
     </row>
     <row r="1060" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>77</v>
+        <v>1005</v>
       </c>
       <c r="B1060" t="s">
         <v>4</v>
@@ -15323,7 +15326,7 @@
     </row>
     <row r="1061" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>1005</v>
+        <v>475</v>
       </c>
       <c r="B1061" t="s">
         <v>4</v>
@@ -15334,7 +15337,7 @@
     </row>
     <row r="1062" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>475</v>
+        <v>75</v>
       </c>
       <c r="B1062" t="s">
         <v>4</v>
@@ -15345,7 +15348,7 @@
     </row>
     <row r="1063" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1063" t="s">
         <v>4</v>
@@ -15356,7 +15359,7 @@
     </row>
     <row r="1064" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>74</v>
+        <v>994</v>
       </c>
       <c r="B1064" t="s">
         <v>4</v>
@@ -15367,7 +15370,7 @@
     </row>
     <row r="1065" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>994</v>
+        <v>69</v>
       </c>
       <c r="B1065" t="s">
         <v>4</v>
@@ -15378,7 +15381,7 @@
     </row>
     <row r="1066" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B1066" t="s">
         <v>4</v>
@@ -15389,7 +15392,7 @@
     </row>
     <row r="1067" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1067" t="s">
         <v>4</v>
@@ -15398,9 +15401,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B1068" t="s">
         <v>4</v>
@@ -15411,7 +15414,7 @@
     </row>
     <row r="1069" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B1069" t="s">
         <v>4</v>
@@ -15422,7 +15425,7 @@
     </row>
     <row r="1070" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1070" t="s">
         <v>4</v>
@@ -15433,18 +15436,18 @@
     </row>
     <row r="1071" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>67</v>
+        <v>469</v>
       </c>
       <c r="B1071" t="s">
         <v>4</v>
       </c>
       <c r="C1071" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1072" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>469</v>
+        <v>886</v>
       </c>
       <c r="B1072" t="s">
         <v>4</v>
@@ -15455,29 +15458,29 @@
     </row>
     <row r="1073" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>886</v>
+        <v>71</v>
       </c>
       <c r="B1073" t="s">
         <v>4</v>
       </c>
       <c r="C1073" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1074" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B1074" t="s">
         <v>4</v>
       </c>
       <c r="C1074" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1075" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B1075" t="s">
         <v>4</v>
@@ -15488,7 +15491,7 @@
     </row>
     <row r="1076" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1076" t="s">
         <v>4</v>
@@ -15499,7 +15502,7 @@
     </row>
     <row r="1077" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1077" t="s">
         <v>4</v>
@@ -15510,7 +15513,7 @@
     </row>
     <row r="1078" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1078" t="s">
         <v>4</v>
@@ -15521,7 +15524,7 @@
     </row>
     <row r="1079" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1079" t="s">
         <v>4</v>
@@ -15532,18 +15535,18 @@
     </row>
     <row r="1080" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
-        <v>62</v>
+        <v>733</v>
       </c>
       <c r="B1080" t="s">
         <v>4</v>
       </c>
       <c r="C1080" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1081" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="B1081" t="s">
         <v>4</v>
@@ -15554,18 +15557,18 @@
     </row>
     <row r="1082" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>759</v>
+        <v>61</v>
       </c>
       <c r="B1082" t="s">
         <v>4</v>
       </c>
       <c r="C1082" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1083" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1083" t="s">
         <v>4</v>
@@ -15576,7 +15579,7 @@
     </row>
     <row r="1084" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
-        <v>60</v>
+        <v>1087</v>
       </c>
       <c r="B1084" t="s">
         <v>4</v>
@@ -15587,7 +15590,7 @@
     </row>
     <row r="1085" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>1088</v>
+        <v>59</v>
       </c>
       <c r="B1085" t="s">
         <v>4</v>
@@ -15598,7 +15601,7 @@
     </row>
     <row r="1086" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
-        <v>59</v>
+        <v>1038</v>
       </c>
       <c r="B1086" t="s">
         <v>4</v>
@@ -15609,18 +15612,18 @@
     </row>
     <row r="1087" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
-        <v>1039</v>
+        <v>542</v>
       </c>
       <c r="B1087" t="s">
         <v>4</v>
       </c>
       <c r="C1087" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1088" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
-        <v>542</v>
+        <v>15</v>
       </c>
       <c r="B1088" t="s">
         <v>4</v>
@@ -15629,59 +15632,48 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1089" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1089" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1089" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A1089" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:A1088" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="бедные люди обычно заводят много детей"/>
-        <filter val="все девушки хотят семью и детей"/>
-        <filter val="все женщины любят детей"/>
-        <filter val="все женщины любят своих детей"/>
-        <filter val="все женщины любят шоппинг, домашние дела и детей"/>
-        <filter val="все женщины очень любят детей и хотят побыстрее замуж"/>
-        <filter val="все женщины прежде всего хотят иметь семью и детей"/>
-        <filter val="все женщины хотят детей и семью"/>
-        <filter val="все женщины хотят иметь детей, это их инстинкт"/>
-        <filter val="все учителя любят детей"/>
-        <filter val="все учителя очень предвзято оценивают детей"/>
-        <filter val="геи своим существованием совращают всех детей"/>
-        <filter val="гомосексуалы совращают наших детей"/>
-        <filter val="гомосексуальным парам нельзя давать детей потому что они будут с детства воспитаны неправильно и станут гомосексуалистами"/>
-        <filter val="для работы воспитателем нужно понимать детей"/>
-        <filter val="женщина всë делает для своих детей"/>
-        <filter val="женщина должна рожать детей и готовить борщи"/>
-        <filter val="женщина занимается домашними делами и воспитывает детей"/>
-        <filter val="женщина не может бросить своих детей, она их мать"/>
-        <filter val="женщина обязана любить детей"/>
-        <filter val="женщина очень рада создать семью и завести детей"/>
-        <filter val="женщина сидит дома и воспитывает детей"/>
-        <filter val="женщины должны сидеть дома и заниматься воспитанием детей"/>
-        <filter val="женщины эмоционально реагируют на поведение детей"/>
-        <filter val="мама все силы тратит на детей"/>
-        <filter val="мама любит своих детей"/>
-        <filter val="мама приготовила ужин для своих детей"/>
-        <filter val="мужчина много работает и на детей не хватает времени"/>
-        <filter val="мужчина несет меньшую ответственность за детей"/>
+        <filter val="в коридорах школы девушкам нельзя обниматься, мало ли подумают, что они лесбиянки"/>
+        <filter val="все лесбиянки истерички и не могут иметь нормальные отношения"/>
+        <filter val="все лесбиянки короткостриженные и мужеподобные"/>
+        <filter val="все лесбиянки не заботятся о своей внешности"/>
+        <filter val="все лесбиянки некрасивые"/>
+        <filter val="все лесбиянки неухоженные"/>
+        <filter val="все лесбиянки носят короткие стрижки"/>
+        <filter val="все лесбиянки обижены на мужчин"/>
+        <filter val="все лесбиянки похожи на мужчин"/>
+        <filter val="все лесбиянки просто не встретили еще подходящего мужчину"/>
+        <filter val="все лесбиянки странные"/>
+        <filter val="все лесбиянки хотят третьего в постели"/>
+        <filter val="все пары лесбиянок состоят из сильной девушки и слабой девушки, имитируя гетеро отношения"/>
+        <filter val="лесбиянкам надо бы лечиться"/>
+        <filter val="лесбиянками объявляют себя только некрасивые и толстые девушки"/>
+        <filter val="лесбиянками становятся некрасивые девушки"/>
+        <filter val="лесбиянки не бывают женственными"/>
+        <filter val="лесбиянки не могут иметь нормальные отношения"/>
+        <filter val="лесбиянки просто недолюбливают мужчин"/>
+        <filter val="лесбиянки толстые"/>
+        <filter val="лесбиянки это норм, но геи мне не нравятся"/>
+        <filter val="никакая она не лесбиянка, у нее волосы длинные"/>
+        <filter val="она лесбиянка до первого нормального мужика"/>
         <filter val="она лесбиянка, значит у нее не может быть детей"/>
-        <filter val="педагог должен любить детей"/>
-        <filter val="педагоги учат детей"/>
-        <filter val="трансгендеры калечат себя и наших детей операциями"/>
+        <filter val="она не лесбиянка, она просто хочет внимания"/>
+        <filter val="она не лесбиянка, просто не встретила того самого правильного мужчину"/>
+        <filter val="она не лесбиянка, у нее был парень в 6 классе"/>
+        <filter val="она не лесбиянка, это все возраст такой, вырастет поймет"/>
+        <filter val="она не лесбиянка, это просто такой период"/>
+        <filter val="она не может быть лесбиянкой, она же красивая"/>
+        <filter val="она ненастоящая лесбиянка, у тебя были отношения с мужчиной"/>
+        <filter val="она перестанет быть лесбиянкой когда встретит нормального парня"/>
+        <filter val="она слишком женственная для лесбиянки"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C1081">
-    <sortCondition descending="1" ref="A791:A1089"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:C1080">
+    <sortCondition descending="1" ref="A790:A1088"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
